--- a/data/2020-08-03/texas.xlsx
+++ b/data/2020-08-03/texas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7561CB5A-7256-4C35-BC6A-2F0A0AA8EBB7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9CFD3448-A0F5-400C-8AF8-A515465E47C5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="350">
-  <si>
-    <t>COVID-19 Cases and Fatalities by County as of 8/01 at 10:45AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="354">
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 8/03 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -818,7 +818,10 @@
     <t>Probable cases are not included in the total case numbers</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 8/01 at 10:45AM CST</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 8/03 at 10:45AM CST</t>
+  </si>
+  <si>
+    <t>DISCLAIMER: All data are provisional and are subject to change.</t>
   </si>
   <si>
     <t>Notes</t>
@@ -848,22 +851,22 @@
     <t/>
   </si>
   <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>****</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>***</t>
-  </si>
-  <si>
-    <t>****</t>
-  </si>
-  <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 8/01 at 3:00PM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 8/03 at 3:00PM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -875,7 +878,7 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 8/01 at 3:00PM CST</t>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 8/03 at 3:00PM CST</t>
   </si>
   <si>
     <t>Viral Tests</t>
@@ -916,7 +919,7 @@
     <t>*Average of previous 7 days</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 8/01 at 3:00PM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 8/03 at 3:00PM CST</t>
   </si>
   <si>
     <t>Location</t>
@@ -937,7 +940,7 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
-    <t>Number of COVID-19 Antibody Tests in Texas as of 8/31 at 3:00PM CST</t>
+    <t>Number of COVID-19 Antibody Tests in Texas as of 8/02 at 3:00PM CST</t>
   </si>
   <si>
     <t>Antibody Tests</t>
@@ -949,7 +952,7 @@
     <t>Number of Positive Antibody Tests Reported</t>
   </si>
   <si>
-    <t>Texas Statewide Hospitalization Data as of 8/01 at 9:30AM CST</t>
+    <t>Texas Statewide Hospitalization Data as of 8/03 at 9:30AM CST</t>
   </si>
   <si>
     <t>Hospital data</t>
@@ -970,7 +973,7 @@
     <t>Available Texas Ventilators</t>
   </si>
   <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 8/01 at 9:30AM CST</t>
+    <t>Number of COVID-19 Hospitalizations by Day as of 8/03 at 9:30AM CST</t>
   </si>
   <si>
     <t>Obs</t>
@@ -979,7 +982,7 @@
     <t>Hospitalizations</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 8/01 at 9:30 AM CST</t>
+    <t>Age of Confirmed Cases as of 8/03 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Age
@@ -1031,10 +1034,10 @@
     <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
   </si>
   <si>
-    <t>Completed case investigations received by DSHS =          36,446</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 8/01 at 9:30 AM CST</t>
+    <t>Completed case investigations received by DSHS =          36,574</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 8/03 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Gender</t>
@@ -1046,7 +1049,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 8/01 at 9:30 AM CST</t>
+    <t>Race/Ethnicity of Confirmed Cases as of 8/03 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Race/Ethnicity</t>
@@ -1067,16 +1070,19 @@
     <t>White</t>
   </si>
   <si>
-    <t>Age of Confirmed Fatalities as of 8/01 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Completed investigations received by DSHS =         6837</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Fatalities as of 8/01 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 8/01 at 9:30 AM CST</t>
+    <t>Age of Confirmed Fatalities as of 8/03 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Completed investigations received by DSHS =           7,016</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Fatalities as of 8/03 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 8/03 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>◊</t>
   </si>
   <si>
     <t>* The total reported cases for 6/16/2020 include 2,622 new cases and an additional 1,476 cases that were previously diagnosed among Texas Department of Criminal Justice inmates.</t>
@@ -1101,22 +1107,27 @@
   </si>
   <si>
     <t>DSHS data reflect the date of death, and the totals for previous days will change as death certificates are filed or amended. By law, death certificates must be filed within 10 days of death and may be amended later. DSHS will continue to provide the number of newly reported fatalities each day.</t>
+  </si>
+  <si>
+    <t>◊ Texas is reporting 5,839 new confirmed cases for Aug. 3, including 471 for Bexar County. The San Antonio Metropolitan Health District has removed some duplicate cases, leading to an overall decrease in the number of Bexar County cases. For more information, visit https://covid19.sanantonio.gov/About-COVID-19/Case-Numbers-Table-Data.</t>
+  </si>
+  <si>
+    <t>Texas is reporting 5,839 new confirmed cases for Aug. 3, including 471 for Bexar County. The San Antonio Metropolitan Health District has removed some duplicate cases, leading to an overall decrease in the number of Bexar County cases. For more information, visit https://covid19.sanantonio.gov/About-COVID-19/Case-Numbers-Table-Data.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="##,###,##0"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="###,##0"/>
     <numFmt numFmtId="167" formatCode="#,###,###,##0"/>
-    <numFmt numFmtId="172" formatCode="###,###,###,###,##0"/>
-    <numFmt numFmtId="174" formatCode="###0"/>
-    <numFmt numFmtId="175" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="###,###,###,###,##0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
@@ -1138,6 +1149,18 @@
       <sz val="9.5"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1208,7 +1231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1239,10 +1262,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1253,18 +1294,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="175" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1399,11 +1428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C260"/>
+  <dimension ref="A1:C261"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -1415,11 +1443,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1437,10 +1465,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>2209</v>
+        <v>2307</v>
       </c>
       <c r="C3" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1448,7 +1476,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="C4" s="4">
         <v>6</v>
@@ -1462,7 +1490,7 @@
         <v>1647</v>
       </c>
       <c r="C5" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1470,7 +1498,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="4">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C6" s="4">
         <v>12</v>
@@ -1569,7 +1597,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="4">
-        <v>511</v>
+        <v>626</v>
       </c>
       <c r="C15" s="4">
         <v>9</v>
@@ -1583,7 +1611,7 @@
         <v>3496</v>
       </c>
       <c r="C16" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1591,10 +1619,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>33935</v>
+        <v>34120</v>
       </c>
       <c r="C17" s="4">
-        <v>611</v>
+        <v>622</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1624,7 +1652,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="4">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C20" s="4">
         <v>2</v>
@@ -1638,7 +1666,7 @@
         <v>708</v>
       </c>
       <c r="C21" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1646,10 +1674,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>6534</v>
+        <v>6732</v>
       </c>
       <c r="C22" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1657,7 +1685,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>3877</v>
+        <v>3922</v>
       </c>
       <c r="C23" s="4">
         <v>42</v>
@@ -1668,7 +1696,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C24" s="4">
         <v>2</v>
@@ -1690,7 +1718,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="4">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -1734,7 +1762,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C30" s="4">
         <v>23</v>
@@ -1767,10 +1795,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>10971</v>
+        <v>13516</v>
       </c>
       <c r="C33" s="4">
-        <v>346</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1778,7 +1806,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="4">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C34" s="4">
         <v>4</v>
@@ -1822,7 +1850,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="C38" s="4">
         <v>2</v>
@@ -1899,7 +1927,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>6353</v>
+        <v>6403</v>
       </c>
       <c r="C45" s="4">
         <v>72</v>
@@ -1921,7 +1949,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C47" s="4">
         <v>2</v>
@@ -1932,10 +1960,10 @@
         <v>49</v>
       </c>
       <c r="B48" s="4">
-        <v>1669</v>
+        <v>1679</v>
       </c>
       <c r="C48" s="4">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1968,7 +1996,7 @@
         <v>200</v>
       </c>
       <c r="C51" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1976,7 +2004,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="4">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C52" s="4">
         <v>5</v>
@@ -2009,7 +2037,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="4">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C55" s="4">
         <v>3</v>
@@ -2053,10 +2081,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>49976</v>
+        <v>51108</v>
       </c>
       <c r="C59" s="4">
-        <v>641</v>
+        <v>650</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2097,7 +2125,7 @@
         <v>64</v>
       </c>
       <c r="B63" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C63" s="4">
         <v>0</v>
@@ -2108,10 +2136,10 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>6803</v>
+        <v>6938</v>
       </c>
       <c r="C64" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2152,7 +2180,7 @@
         <v>69</v>
       </c>
       <c r="B68" s="4">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C68" s="4">
         <v>3</v>
@@ -2177,7 +2205,7 @@
         <v>2276</v>
       </c>
       <c r="C70" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2196,10 +2224,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>14410</v>
+        <v>14914</v>
       </c>
       <c r="C72" s="4">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2295,10 +2323,10 @@
         <v>82</v>
       </c>
       <c r="B81" s="4">
-        <v>7082</v>
+        <v>7191</v>
       </c>
       <c r="C81" s="4">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2317,7 +2345,7 @@
         <v>84</v>
       </c>
       <c r="B83" s="4">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C83" s="4">
         <v>0</v>
@@ -2350,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>8721</v>
+        <v>8825</v>
       </c>
       <c r="C86" s="4">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2427,7 +2455,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="C93" s="4">
         <v>11</v>
@@ -2441,7 +2469,7 @@
         <v>1313</v>
       </c>
       <c r="C94" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2449,7 +2477,7 @@
         <v>96</v>
       </c>
       <c r="B95" s="4">
-        <v>839</v>
+        <v>849</v>
       </c>
       <c r="C95" s="4">
         <v>20</v>
@@ -2463,7 +2491,7 @@
         <v>1597</v>
       </c>
       <c r="C96" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2537,10 +2565,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>72964</v>
+        <v>76642</v>
       </c>
       <c r="C103" s="4">
-        <v>1288</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2548,7 +2576,7 @@
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="C104" s="4">
         <v>22</v>
@@ -2584,7 +2612,7 @@
         <v>4297</v>
       </c>
       <c r="C107" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2614,10 +2642,10 @@
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>17006</v>
+        <v>17353</v>
       </c>
       <c r="C110" s="4">
-        <v>412</v>
+        <v>457</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2650,7 +2678,7 @@
         <v>437</v>
       </c>
       <c r="C113" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2669,7 +2697,7 @@
         <v>116</v>
       </c>
       <c r="B115" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C115" s="4">
         <v>6</v>
@@ -2702,7 +2730,7 @@
         <v>119</v>
       </c>
       <c r="B118" s="4">
-        <v>1049</v>
+        <v>1059</v>
       </c>
       <c r="C118" s="4">
         <v>20</v>
@@ -2749,7 +2777,7 @@
         <v>320</v>
       </c>
       <c r="C122" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2779,10 +2807,10 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>5491</v>
+        <v>5506</v>
       </c>
       <c r="C125" s="4">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2801,10 +2829,10 @@
         <v>128</v>
       </c>
       <c r="B127" s="4">
-        <v>591</v>
+        <v>630</v>
       </c>
       <c r="C127" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2815,7 +2843,7 @@
         <v>1541</v>
       </c>
       <c r="C128" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2834,7 +2862,7 @@
         <v>131</v>
       </c>
       <c r="B130" s="4">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C130" s="4">
         <v>4</v>
@@ -2848,7 +2876,7 @@
         <v>1816</v>
       </c>
       <c r="C131" s="4">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2933,7 +2961,7 @@
         <v>140</v>
       </c>
       <c r="B139" s="4">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="C139" s="4">
         <v>5</v>
@@ -2966,7 +2994,7 @@
         <v>143</v>
       </c>
       <c r="B142" s="4">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="C142" s="4">
         <v>16</v>
@@ -3010,7 +3038,7 @@
         <v>147</v>
       </c>
       <c r="B146" s="4">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C146" s="4">
         <v>8</v>
@@ -3032,7 +3060,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="4">
-        <v>842</v>
+        <v>851</v>
       </c>
       <c r="C148" s="4">
         <v>25</v>
@@ -3098,10 +3126,10 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>5512</v>
+        <v>5593</v>
       </c>
       <c r="C154" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3131,7 +3159,7 @@
         <v>158</v>
       </c>
       <c r="B157" s="4">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C157" s="4">
         <v>7</v>
@@ -3164,10 +3192,10 @@
         <v>161</v>
       </c>
       <c r="B160" s="4">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="C160" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3197,7 +3225,7 @@
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>4326</v>
+        <v>4436</v>
       </c>
       <c r="C163" s="4">
         <v>39</v>
@@ -3219,7 +3247,7 @@
         <v>166</v>
       </c>
       <c r="B165" s="4">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C165" s="4">
         <v>24</v>
@@ -3299,7 +3327,7 @@
         <v>6196</v>
       </c>
       <c r="C172" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3318,7 +3346,7 @@
         <v>175</v>
       </c>
       <c r="B174" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C174" s="4">
         <v>1</v>
@@ -3340,7 +3368,7 @@
         <v>177</v>
       </c>
       <c r="B176" s="4">
-        <v>1023</v>
+        <v>1035</v>
       </c>
       <c r="C176" s="4">
         <v>36</v>
@@ -3384,7 +3412,7 @@
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>9856</v>
+        <v>10067</v>
       </c>
       <c r="C180" s="4">
         <v>102</v>
@@ -3420,7 +3448,7 @@
         <v>1021</v>
       </c>
       <c r="C183" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3439,7 +3467,7 @@
         <v>186</v>
       </c>
       <c r="B185" s="4">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C185" s="4">
         <v>17</v>
@@ -3571,7 +3599,7 @@
         <v>198</v>
       </c>
       <c r="B197" s="4">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C197" s="4">
         <v>3</v>
@@ -3582,7 +3610,7 @@
         <v>199</v>
       </c>
       <c r="B198" s="4">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="C198" s="4">
         <v>0</v>
@@ -3604,7 +3632,7 @@
         <v>201</v>
       </c>
       <c r="B200" s="4">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C200" s="4">
         <v>1</v>
@@ -3637,7 +3665,7 @@
         <v>204</v>
       </c>
       <c r="B203" s="4">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C203" s="4">
         <v>2</v>
@@ -3670,7 +3698,7 @@
         <v>207</v>
       </c>
       <c r="B206" s="4">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C206" s="4">
         <v>8</v>
@@ -3736,7 +3764,7 @@
         <v>213</v>
       </c>
       <c r="B212" s="4">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C212" s="4">
         <v>16</v>
@@ -3780,10 +3808,10 @@
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>1806</v>
+        <v>1894</v>
       </c>
       <c r="C216" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3846,10 +3874,10 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>28410</v>
+        <v>29054</v>
       </c>
       <c r="C222" s="4">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3857,7 +3885,7 @@
         <v>224</v>
       </c>
       <c r="B223" s="4">
-        <v>1077</v>
+        <v>1085</v>
       </c>
       <c r="C223" s="4">
         <v>19</v>
@@ -3882,7 +3910,7 @@
         <v>116</v>
       </c>
       <c r="C225" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3901,7 +3929,7 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="C227" s="4">
         <v>14</v>
@@ -3912,7 +3940,7 @@
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>1575</v>
+        <v>1625</v>
       </c>
       <c r="C228" s="4">
         <v>20</v>
@@ -3923,10 +3951,10 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>20745</v>
+        <v>21214</v>
       </c>
       <c r="C229" s="4">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3934,7 +3962,7 @@
         <v>231</v>
       </c>
       <c r="B230" s="4">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C230" s="4">
         <v>2</v>
@@ -3948,7 +3976,7 @@
         <v>115</v>
       </c>
       <c r="C231" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3956,7 +3984,7 @@
         <v>233</v>
       </c>
       <c r="B232" s="4">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C232" s="4">
         <v>2</v>
@@ -3978,7 +4006,7 @@
         <v>235</v>
       </c>
       <c r="B234" s="4">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="C234" s="4">
         <v>7</v>
@@ -4014,7 +4042,7 @@
         <v>3203</v>
       </c>
       <c r="C237" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4022,7 +4050,7 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>2814</v>
+        <v>2840</v>
       </c>
       <c r="C238" s="4">
         <v>38</v>
@@ -4033,7 +4061,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="C239" s="4">
         <v>3</v>
@@ -4055,7 +4083,7 @@
         <v>242</v>
       </c>
       <c r="B241" s="4">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="C241" s="4">
         <v>38</v>
@@ -4066,7 +4094,7 @@
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>6131</v>
+        <v>6411</v>
       </c>
       <c r="C242" s="4">
         <v>77</v>
@@ -4077,7 +4105,7 @@
         <v>244</v>
       </c>
       <c r="B243" s="4">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="C243" s="4">
         <v>21</v>
@@ -4102,7 +4130,7 @@
         <v>902</v>
       </c>
       <c r="C245" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4121,10 +4149,10 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="C247" s="4">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4135,7 +4163,7 @@
         <v>5715</v>
       </c>
       <c r="C248" s="4">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4209,7 +4237,7 @@
         <v>256</v>
       </c>
       <c r="B255" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C255" s="4">
         <v>2</v>
@@ -4242,26 +4270,37 @@
         <v>259</v>
       </c>
       <c r="B258" s="4">
-        <v>430485</v>
+        <v>442014</v>
       </c>
       <c r="C258" s="4">
-        <v>6837</v>
+        <v>7016</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="14" t="s">
+      <c r="A260" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="B260" s="13"/>
-      <c r="C260" s="13"/>
+      <c r="B260" s="19"/>
+      <c r="C260" s="19"/>
+    </row>
+    <row r="261" spans="1:3" ht="110.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="B261" s="19"/>
+      <c r="C261" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A260:C260"/>
+    <mergeCell ref="A261:C261"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A261" r:id="rId1" tooltip="https://covid19.sanantonio.gov/about-covid-19/case-numbers-table-data" display="https://covid19.sanantonio.gov/About-COVID-19/Case-Numbers-Table-Data" xr:uid="{F9F73690-C424-490B-9994-EA9A8361B92D}"/>
+  </hyperlinks>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4271,7 +4310,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="I22" sqref="I22"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4283,45 +4322,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B3" s="10">
-        <v>14601</v>
-      </c>
-      <c r="C3" s="18">
+        <v>14632</v>
+      </c>
+      <c r="C3" s="16">
         <f>B3/B$6</f>
-        <v>0.40062009548372934</v>
+        <v>0.40006562038606658</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B4" s="10">
-        <v>21049</v>
-      </c>
-      <c r="C4" s="18">
+        <v>21146</v>
+      </c>
+      <c r="C4" s="16">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
-        <v>0.5775393733194315</v>
+        <v>0.57817028490184286</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4331,9 +4370,9 @@
       <c r="B5" s="10">
         <v>796</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="16">
         <f t="shared" si="0"/>
-        <v>2.1840531196839159E-2</v>
+        <v>2.1764094712090558E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4341,33 +4380,33 @@
         <v>259</v>
       </c>
       <c r="B6" s="10">
-        <v>36446</v>
-      </c>
-      <c r="C6" s="18">
+        <v>36574</v>
+      </c>
+      <c r="C6" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="A8" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="A9" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
     </row>
     <row r="10" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4387,7 +4426,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="I22" sqref="I22"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4399,81 +4438,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B3" s="10">
-        <v>703</v>
-      </c>
-      <c r="C3" s="18">
+        <v>704</v>
+      </c>
+      <c r="C3" s="16">
         <f>B3/B$9</f>
-        <v>1.928881084343961E-2</v>
+        <v>1.9248646579537378E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B4" s="10">
-        <v>4997</v>
-      </c>
-      <c r="C4" s="18">
+        <v>5028</v>
+      </c>
+      <c r="C4" s="16">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
-        <v>0.13710695275201668</v>
+        <v>0.13747470880953683</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B5" s="10">
-        <v>14534</v>
-      </c>
-      <c r="C5" s="18">
+        <v>14583</v>
+      </c>
+      <c r="C5" s="16">
         <f t="shared" si="0"/>
-        <v>0.3987817593151512</v>
+        <v>0.39872587083720679</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B6" s="10">
-        <v>166</v>
-      </c>
-      <c r="C6" s="18">
+        <v>168</v>
+      </c>
+      <c r="C6" s="16">
         <f t="shared" si="0"/>
-        <v>4.5546836415518849E-3</v>
+        <v>4.5934270246623284E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B7" s="10">
-        <v>9737</v>
-      </c>
-      <c r="C7" s="18">
+        <v>9757</v>
+      </c>
+      <c r="C7" s="16">
         <f t="shared" si="0"/>
-        <v>0.26716237721560665</v>
+        <v>0.26677421118827582</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4481,11 +4520,11 @@
         <v>258</v>
       </c>
       <c r="B8" s="10">
-        <v>6309</v>
-      </c>
-      <c r="C8" s="18">
+        <v>6334</v>
+      </c>
+      <c r="C8" s="16">
         <f t="shared" si="0"/>
-        <v>0.17310541623223399</v>
+        <v>0.17318313556078088</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4493,33 +4532,33 @@
         <v>259</v>
       </c>
       <c r="B9" s="10">
-        <v>36446</v>
-      </c>
-      <c r="C9" s="18">
+        <v>36574</v>
+      </c>
+      <c r="C9" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="A11" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="A12" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
     </row>
     <row r="13" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4539,8 +4578,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection activeCell="I22" sqref="I22"/>
+      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4551,175 +4590,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="B3" s="11">
+        <v>314</v>
+      </c>
+      <c r="B3" s="10">
         <v>2</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <f>B3/B$16</f>
-        <v>2.9252596167909901E-4</v>
+        <v>2.8506271379703536E-4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B4" s="11">
+        <v>315</v>
+      </c>
+      <c r="B4" s="10">
         <v>2</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
-        <v>2.9252596167909901E-4</v>
+        <v>2.8506271379703536E-4</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B5" s="11">
+        <v>316</v>
+      </c>
+      <c r="B5" s="10">
         <v>7</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <f t="shared" si="0"/>
-        <v>1.0238408658768466E-3</v>
+        <v>9.9771949828962375E-4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="B6" s="11">
-        <v>56</v>
-      </c>
-      <c r="C6" s="18">
+        <v>317</v>
+      </c>
+      <c r="B6" s="10">
+        <v>58</v>
+      </c>
+      <c r="C6" s="17">
         <f t="shared" si="0"/>
-        <v>8.1907269270147728E-3</v>
+        <v>8.2668187001140245E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B7" s="11">
-        <v>143</v>
-      </c>
-      <c r="C7" s="18">
+        <v>318</v>
+      </c>
+      <c r="B7" s="10">
+        <v>146</v>
+      </c>
+      <c r="C7" s="17">
         <f t="shared" si="0"/>
-        <v>2.0915606260055581E-2</v>
+        <v>2.080957810718358E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B8" s="11">
-        <v>375</v>
-      </c>
-      <c r="C8" s="18">
+        <v>319</v>
+      </c>
+      <c r="B8" s="10">
+        <v>381</v>
+      </c>
+      <c r="C8" s="17">
         <f t="shared" si="0"/>
-        <v>5.4848617814831066E-2</v>
+        <v>5.4304446978335232E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="B9" s="11">
-        <v>769</v>
-      </c>
-      <c r="C9" s="18">
+        <v>320</v>
+      </c>
+      <c r="B9" s="10">
+        <v>790</v>
+      </c>
+      <c r="C9" s="17">
         <f t="shared" si="0"/>
-        <v>0.11247623226561357</v>
+        <v>0.11259977194982897</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B10" s="11">
-        <v>629</v>
-      </c>
-      <c r="C10" s="18">
+        <v>321</v>
+      </c>
+      <c r="B10" s="10">
+        <v>650</v>
+      </c>
+      <c r="C10" s="17">
         <f t="shared" si="0"/>
-        <v>9.1999414948076647E-2</v>
+        <v>9.264538198403649E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B11" s="11">
-        <v>771</v>
-      </c>
-      <c r="C11" s="18">
+        <v>322</v>
+      </c>
+      <c r="B11" s="10">
+        <v>797</v>
+      </c>
+      <c r="C11" s="17">
         <f t="shared" si="0"/>
-        <v>0.11276875822729267</v>
+        <v>0.11359749144811859</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="B12" s="11">
-        <v>895</v>
-      </c>
-      <c r="C12" s="18">
+        <v>323</v>
+      </c>
+      <c r="B12" s="10">
+        <v>918</v>
+      </c>
+      <c r="C12" s="17">
         <f t="shared" si="0"/>
-        <v>0.13090536785139681</v>
+        <v>0.13084378563283922</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B13" s="11">
-        <v>846</v>
-      </c>
-      <c r="C13" s="18">
+        <v>324</v>
+      </c>
+      <c r="B13" s="10">
+        <v>862</v>
+      </c>
+      <c r="C13" s="17">
         <f t="shared" si="0"/>
-        <v>0.12373848179025888</v>
+        <v>0.12286202964652224</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B14" s="11">
-        <v>2342</v>
-      </c>
-      <c r="C14" s="18">
+        <v>325</v>
+      </c>
+      <c r="B14" s="10">
+        <v>2403</v>
+      </c>
+      <c r="C14" s="17">
         <f t="shared" si="0"/>
-        <v>0.34254790112622496</v>
+        <v>0.34250285062713798</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>0</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4728,34 +4767,34 @@
       <c r="A16" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B16" s="11">
-        <v>6837</v>
-      </c>
-      <c r="C16" s="18">
+      <c r="B16" s="10">
+        <v>7016</v>
+      </c>
+      <c r="C16" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="A18" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="A19" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4775,7 +4814,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="I22" sqref="I22"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4787,55 +4826,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="B3" s="11">
-        <v>2758</v>
-      </c>
-      <c r="C3" s="18">
+        <v>330</v>
+      </c>
+      <c r="B3" s="10">
+        <v>2833</v>
+      </c>
+      <c r="C3" s="16">
         <f>B3/B$6</f>
-        <v>0.40339330115547756</v>
+        <v>0.40379133409350054</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="B4" s="11">
-        <v>4079</v>
-      </c>
-      <c r="C4" s="18">
+        <v>331</v>
+      </c>
+      <c r="B4" s="10">
+        <v>4183</v>
+      </c>
+      <c r="C4" s="16">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
-        <v>0.59660669884452244</v>
+        <v>0.59620866590649946</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>0</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4844,34 +4883,34 @@
       <c r="A6" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B6" s="11">
-        <v>6837</v>
-      </c>
-      <c r="C6" s="18">
+      <c r="B6" s="10">
+        <v>7016</v>
+      </c>
+      <c r="C6" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="A8" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="A9" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
     </row>
     <row r="10" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4891,7 +4930,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="I22" sqref="I22"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4903,81 +4942,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B3" s="10">
-        <v>167</v>
-      </c>
-      <c r="C3" s="18">
+        <v>172</v>
+      </c>
+      <c r="C3" s="16">
         <f>B3/B$9</f>
-        <v>2.4425917800204769E-2</v>
+        <v>2.4515393386545039E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B4" s="10">
-        <v>910</v>
-      </c>
-      <c r="C4" s="18">
+        <v>930</v>
+      </c>
+      <c r="C4" s="16">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
-        <v>0.13309931256399005</v>
+        <v>0.13255416191562144</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B5" s="10">
-        <v>3423</v>
-      </c>
-      <c r="C5" s="18">
+        <v>3537</v>
+      </c>
+      <c r="C5" s="16">
         <f t="shared" si="0"/>
-        <v>0.50065818341377799</v>
+        <v>0.50413340935005702</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B6" s="10">
         <v>53</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="16">
         <f t="shared" si="0"/>
-        <v>7.7519379844961239E-3</v>
+        <v>7.5541619156214365E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B7" s="10">
-        <v>2280</v>
-      </c>
-      <c r="C7" s="18">
+        <v>2320</v>
+      </c>
+      <c r="C7" s="16">
         <f t="shared" si="0"/>
-        <v>0.3334795963141729</v>
+        <v>0.33067274800456098</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4987,9 +5026,9 @@
       <c r="B8" s="10">
         <v>4</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="16">
         <f t="shared" si="0"/>
-        <v>5.8505192335819801E-4</v>
+        <v>5.7012542759407071E-4</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4997,33 +5036,33 @@
         <v>259</v>
       </c>
       <c r="B9" s="10">
-        <v>6837</v>
-      </c>
-      <c r="C9" s="18">
+        <v>7016</v>
+      </c>
+      <c r="C9" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="A11" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="A12" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
     </row>
     <row r="13" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5039,12 +5078,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:F1"/>
+      <pane ySplit="2" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="I22" sqref="I22"/>
+      <selection pane="bottomLeft" activeCell="F170" sqref="F170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5057,101 +5096,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="B3" s="6">
-        <v>43894</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B4" s="6">
-        <v>43895</v>
+        <v>43894</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>269</v>
+      <c r="D4" s="7">
+        <v>0</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>269</v>
+      <c r="F4" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B5" s="6">
-        <v>43896</v>
+        <v>43895</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>269</v>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
       </c>
       <c r="E5" s="7">
-        <v>5</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>269</v>
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B6" s="6">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="C6" s="7">
         <v>5</v>
@@ -5160,18 +5189,18 @@
         <v>0</v>
       </c>
       <c r="E6" s="7">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7">
         <v>0</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B7" s="6">
-        <v>43898</v>
+        <v>43897</v>
       </c>
       <c r="C7" s="7">
         <v>5</v>
@@ -5188,19 +5217,19 @@
     </row>
     <row r="8" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B8" s="6">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7">
         <v>0</v>
       </c>
       <c r="E8" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F8" s="7">
         <v>0</v>
@@ -5208,19 +5237,19 @@
     </row>
     <row r="9" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B9" s="6">
-        <v>43900</v>
+        <v>43899</v>
       </c>
       <c r="C9" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9" s="7">
         <v>0</v>
       </c>
       <c r="E9" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F9" s="7">
         <v>0</v>
@@ -5228,13 +5257,13 @@
     </row>
     <row r="10" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B10" s="6">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="C10" s="7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10" s="7">
         <v>0</v>
@@ -5248,19 +5277,19 @@
     </row>
     <row r="11" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B11" s="6">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="C11" s="7">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D11" s="7">
         <v>0</v>
       </c>
       <c r="E11" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" s="7">
         <v>0</v>
@@ -5268,10 +5297,10 @@
     </row>
     <row r="12" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B12" s="6">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="C12" s="7">
         <v>22</v>
@@ -5280,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12" s="7">
         <v>0</v>
@@ -5288,10 +5317,10 @@
     </row>
     <row r="13" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B13" s="6">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="C13" s="7">
         <v>22</v>
@@ -5308,39 +5337,39 @@
     </row>
     <row r="14" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B14" s="6">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="C14" s="7">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B15" s="6">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="C15" s="7">
         <v>56</v>
       </c>
       <c r="D15" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F15" s="7">
         <v>1</v>
@@ -5348,39 +5377,39 @@
     </row>
     <row r="16" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B16" s="6">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="C16" s="7">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D16" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B17" s="6">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="C17" s="7">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D17" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E17" s="7">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F17" s="7">
         <v>2</v>
@@ -5388,139 +5417,139 @@
     </row>
     <row r="18" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B18" s="6">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="C18" s="7">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="D18" s="7">
         <v>6</v>
       </c>
       <c r="E18" s="7">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B19" s="6">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="C19" s="7">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="D19" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E19" s="7">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="F19" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B20" s="6">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="C20" s="7">
-        <v>235</v>
+        <v>175</v>
       </c>
       <c r="D20" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E20" s="7">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F20" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B21" s="6">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="C21" s="7">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="D21" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="7">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B22" s="6">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="C22" s="7">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="D22" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E22" s="7">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F22" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B23" s="6">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="C23" s="7">
-        <v>712</v>
+        <v>287</v>
       </c>
       <c r="D23" s="7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E23" s="7">
-        <v>425</v>
+        <v>25</v>
       </c>
       <c r="F23" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B24" s="6">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="C24" s="7">
-        <v>975</v>
+        <v>712</v>
       </c>
       <c r="D24" s="7">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E24" s="7">
-        <v>263</v>
+        <v>425</v>
       </c>
       <c r="F24" s="7">
         <v>6</v>
@@ -5528,159 +5557,159 @@
     </row>
     <row r="25" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B25" s="6">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="C25" s="7">
-        <v>1394</v>
+        <v>975</v>
       </c>
       <c r="D25" s="7">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E25" s="7">
-        <v>419</v>
+        <v>263</v>
       </c>
       <c r="F25" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B26" s="6">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="C26" s="7">
-        <v>1731</v>
+        <v>1394</v>
       </c>
       <c r="D26" s="7">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E26" s="7">
-        <v>337</v>
+        <v>419</v>
       </c>
       <c r="F26" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B27" s="6">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="C27" s="7">
-        <v>2048</v>
+        <v>1731</v>
       </c>
       <c r="D27" s="7">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E27" s="7">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="F27" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B28" s="6">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="C28" s="7">
-        <v>2552</v>
+        <v>2048</v>
       </c>
       <c r="D28" s="7">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E28" s="7">
-        <v>504</v>
+        <v>317</v>
       </c>
       <c r="F28" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B29" s="6">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="C29" s="7">
-        <v>2874</v>
+        <v>2552</v>
       </c>
       <c r="D29" s="7">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="E29" s="7">
-        <v>322</v>
+        <v>504</v>
       </c>
       <c r="F29" s="7">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B30" s="6">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="C30" s="7">
-        <v>3266</v>
+        <v>2874</v>
       </c>
       <c r="D30" s="7">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E30" s="7">
-        <v>392</v>
+        <v>322</v>
       </c>
       <c r="F30" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B31" s="6">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="C31" s="7">
-        <v>3996</v>
+        <v>3266</v>
       </c>
       <c r="D31" s="7">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E31" s="7">
-        <v>730</v>
+        <v>392</v>
       </c>
       <c r="F31" s="7">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B32" s="6">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="C32" s="7">
-        <v>4665</v>
+        <v>3996</v>
       </c>
       <c r="D32" s="7">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E32" s="7">
-        <v>669</v>
+        <v>730</v>
       </c>
       <c r="F32" s="7">
         <v>21</v>
@@ -5688,199 +5717,199 @@
     </row>
     <row r="33" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B33" s="6">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="C33" s="7">
-        <v>5324</v>
+        <v>4665</v>
       </c>
       <c r="D33" s="7">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="E33" s="7">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="F33" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B34" s="6">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="C34" s="7">
-        <v>6112</v>
+        <v>5324</v>
       </c>
       <c r="D34" s="7">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="E34" s="7">
-        <v>788</v>
+        <v>659</v>
       </c>
       <c r="F34" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B35" s="6">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="C35" s="7">
-        <v>6793</v>
+        <v>6112</v>
       </c>
       <c r="D35" s="7">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="E35" s="7">
-        <v>681</v>
+        <v>788</v>
       </c>
       <c r="F35" s="7">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B36" s="6">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="C36" s="7">
-        <v>7273</v>
+        <v>6793</v>
       </c>
       <c r="D36" s="7">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="E36" s="7">
-        <v>480</v>
+        <v>681</v>
       </c>
       <c r="F36" s="7">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B37" s="6">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="C37" s="7">
-        <v>8261</v>
+        <v>7273</v>
       </c>
       <c r="D37" s="7">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="E37" s="7">
-        <v>988</v>
+        <v>480</v>
       </c>
       <c r="F37" s="7">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B38" s="6">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="C38" s="7">
-        <v>9353</v>
+        <v>8261</v>
       </c>
       <c r="D38" s="7">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="E38" s="7">
-        <v>1092</v>
+        <v>988</v>
       </c>
       <c r="F38" s="7">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B39" s="6">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="C39" s="7">
-        <v>10230</v>
+        <v>9353</v>
       </c>
       <c r="D39" s="7">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="E39" s="7">
-        <v>877</v>
+        <v>1092</v>
       </c>
       <c r="F39" s="7">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B40" s="6">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="C40" s="7">
-        <v>11671</v>
+        <v>10230</v>
       </c>
       <c r="D40" s="7">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="E40" s="7">
-        <v>1441</v>
+        <v>877</v>
       </c>
       <c r="F40" s="7">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B41" s="6">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="C41" s="7">
-        <v>12561</v>
+        <v>11671</v>
       </c>
       <c r="D41" s="7">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="E41" s="7">
-        <v>890</v>
+        <v>1441</v>
       </c>
       <c r="F41" s="7">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B42" s="6">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="C42" s="7">
-        <v>13484</v>
+        <v>12561</v>
       </c>
       <c r="D42" s="7">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="E42" s="7">
-        <v>923</v>
+        <v>890</v>
       </c>
       <c r="F42" s="7">
         <v>34</v>
@@ -5888,459 +5917,459 @@
     </row>
     <row r="43" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B43" s="6">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="C43" s="7">
-        <v>13906</v>
+        <v>13484</v>
       </c>
       <c r="D43" s="7">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="E43" s="7">
-        <v>422</v>
+        <v>923</v>
       </c>
       <c r="F43" s="7">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B44" s="6">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="C44" s="7">
-        <v>14624</v>
+        <v>13906</v>
       </c>
       <c r="D44" s="7">
-        <v>481</v>
+        <v>449</v>
       </c>
       <c r="E44" s="7">
-        <v>718</v>
+        <v>422</v>
       </c>
       <c r="F44" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B45" s="6">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="C45" s="7">
-        <v>15492</v>
+        <v>14624</v>
       </c>
       <c r="D45" s="7">
-        <v>517</v>
+        <v>481</v>
       </c>
       <c r="E45" s="7">
-        <v>868</v>
+        <v>718</v>
       </c>
       <c r="F45" s="7">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B46" s="6">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="C46" s="7">
-        <v>16455</v>
+        <v>15492</v>
       </c>
       <c r="D46" s="7">
-        <v>549</v>
+        <v>517</v>
       </c>
       <c r="E46" s="7">
-        <v>963</v>
+        <v>868</v>
       </c>
       <c r="F46" s="7">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B47" s="6">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="C47" s="7">
-        <v>17371</v>
+        <v>16455</v>
       </c>
       <c r="D47" s="7">
-        <v>587</v>
+        <v>549</v>
       </c>
       <c r="E47" s="7">
-        <v>916</v>
+        <v>963</v>
       </c>
       <c r="F47" s="7">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B48" s="6">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="C48" s="7">
-        <v>18260</v>
+        <v>17371</v>
       </c>
       <c r="D48" s="7">
-        <v>616</v>
+        <v>587</v>
       </c>
       <c r="E48" s="7">
-        <v>889</v>
+        <v>916</v>
       </c>
       <c r="F48" s="7">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B49" s="6">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="C49" s="7">
-        <v>18923</v>
+        <v>18260</v>
       </c>
       <c r="D49" s="7">
-        <v>644</v>
+        <v>616</v>
       </c>
       <c r="E49" s="7">
-        <v>663</v>
+        <v>889</v>
       </c>
       <c r="F49" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B50" s="6">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="C50" s="7">
-        <v>19458</v>
+        <v>18923</v>
       </c>
       <c r="D50" s="7">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="E50" s="7">
-        <v>535</v>
+        <v>663</v>
       </c>
       <c r="F50" s="7">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B51" s="6">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="C51" s="7">
-        <v>20196</v>
+        <v>19458</v>
       </c>
       <c r="D51" s="7">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="E51" s="7">
-        <v>738</v>
+        <v>535</v>
       </c>
       <c r="F51" s="7">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B52" s="6">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="C52" s="7">
-        <v>21069</v>
+        <v>20196</v>
       </c>
       <c r="D52" s="7">
-        <v>739</v>
+        <v>709</v>
       </c>
       <c r="E52" s="7">
-        <v>873</v>
+        <v>738</v>
       </c>
       <c r="F52" s="7">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B53" s="6">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="C53" s="7">
-        <v>21944</v>
+        <v>21069</v>
       </c>
       <c r="D53" s="7">
-        <v>775</v>
+        <v>739</v>
       </c>
       <c r="E53" s="7">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F53" s="7">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B54" s="6">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="C54" s="7">
-        <v>22806</v>
+        <v>21944</v>
       </c>
       <c r="D54" s="7">
-        <v>808</v>
+        <v>775</v>
       </c>
       <c r="E54" s="7">
-        <v>862</v>
+        <v>875</v>
       </c>
       <c r="F54" s="7">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B55" s="6">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="C55" s="7">
-        <v>23773</v>
+        <v>22806</v>
       </c>
       <c r="D55" s="7">
-        <v>845</v>
+        <v>808</v>
       </c>
       <c r="E55" s="7">
-        <v>967</v>
+        <v>862</v>
       </c>
       <c r="F55" s="7">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B56" s="6">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="C56" s="7">
-        <v>24631</v>
+        <v>23773</v>
       </c>
       <c r="D56" s="7">
-        <v>875</v>
+        <v>845</v>
       </c>
       <c r="E56" s="7">
-        <v>858</v>
+        <v>967</v>
       </c>
       <c r="F56" s="7">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B57" s="6">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="C57" s="7">
-        <v>25297</v>
+        <v>24631</v>
       </c>
       <c r="D57" s="7">
-        <v>900</v>
+        <v>875</v>
       </c>
       <c r="E57" s="7">
-        <v>666</v>
+        <v>858</v>
       </c>
       <c r="F57" s="7">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B58" s="6">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="C58" s="7">
-        <v>26171</v>
+        <v>25297</v>
       </c>
       <c r="D58" s="7">
-        <v>934</v>
+        <v>900</v>
       </c>
       <c r="E58" s="7">
-        <v>874</v>
+        <v>666</v>
       </c>
       <c r="F58" s="7">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B59" s="6">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="C59" s="7">
-        <v>27054</v>
+        <v>26171</v>
       </c>
       <c r="D59" s="7">
-        <v>957</v>
+        <v>934</v>
       </c>
       <c r="E59" s="7">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="F59" s="7">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B60" s="6">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="C60" s="7">
-        <v>28087</v>
+        <v>27054</v>
       </c>
       <c r="D60" s="7">
-        <v>988</v>
+        <v>957</v>
       </c>
       <c r="E60" s="7">
-        <v>1033</v>
+        <v>883</v>
       </c>
       <c r="F60" s="7">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B61" s="6">
-        <v>43952</v>
+        <v>43951</v>
       </c>
       <c r="C61" s="7">
-        <v>29229</v>
+        <v>28087</v>
       </c>
       <c r="D61" s="7">
-        <v>1031</v>
+        <v>988</v>
       </c>
       <c r="E61" s="7">
-        <v>1142</v>
+        <v>1033</v>
       </c>
       <c r="F61" s="7">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B62" s="6">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="C62" s="7">
-        <v>30522</v>
+        <v>29229</v>
       </c>
       <c r="D62" s="7">
-        <v>1065</v>
+        <v>1031</v>
       </c>
       <c r="E62" s="7">
-        <v>1293</v>
+        <v>1142</v>
       </c>
       <c r="F62" s="7">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B63" s="6">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="C63" s="7">
-        <v>31548</v>
+        <v>30522</v>
       </c>
       <c r="D63" s="7">
-        <v>1100</v>
+        <v>1065</v>
       </c>
       <c r="E63" s="7">
-        <v>1026</v>
+        <v>1293</v>
       </c>
       <c r="F63" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B64" s="6">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="C64" s="7">
-        <v>32332</v>
+        <v>31548</v>
       </c>
       <c r="D64" s="7">
-        <v>1130</v>
+        <v>1100</v>
       </c>
       <c r="E64" s="7">
-        <v>784</v>
+        <v>1026</v>
       </c>
       <c r="F64" s="7">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B65" s="6">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="C65" s="7">
-        <v>33369</v>
+        <v>32332</v>
       </c>
       <c r="D65" s="7">
-        <v>1160</v>
+        <v>1130</v>
       </c>
       <c r="E65" s="7">
-        <v>1037</v>
+        <v>784</v>
       </c>
       <c r="F65" s="7">
         <v>30</v>
@@ -6348,139 +6377,139 @@
     </row>
     <row r="66" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B66" s="6">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="C66" s="7">
-        <v>34422</v>
+        <v>33369</v>
       </c>
       <c r="D66" s="7">
-        <v>1192</v>
+        <v>1160</v>
       </c>
       <c r="E66" s="7">
-        <v>1053</v>
+        <v>1037</v>
       </c>
       <c r="F66" s="7">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B67" s="6">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="C67" s="7">
-        <v>35390</v>
+        <v>34422</v>
       </c>
       <c r="D67" s="7">
-        <v>1227</v>
+        <v>1192</v>
       </c>
       <c r="E67" s="7">
-        <v>968</v>
+        <v>1053</v>
       </c>
       <c r="F67" s="7">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B68" s="6">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="C68" s="7">
-        <v>36609</v>
+        <v>35390</v>
       </c>
       <c r="D68" s="7">
-        <v>1260</v>
+        <v>1227</v>
       </c>
       <c r="E68" s="7">
-        <v>1219</v>
+        <v>968</v>
       </c>
       <c r="F68" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B69" s="6">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="C69" s="7">
-        <v>37860</v>
+        <v>36609</v>
       </c>
       <c r="D69" s="7">
-        <v>1287</v>
+        <v>1260</v>
       </c>
       <c r="E69" s="7">
-        <v>1251</v>
+        <v>1219</v>
       </c>
       <c r="F69" s="7">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B70" s="6">
-        <v>43961</v>
+        <v>43960</v>
       </c>
       <c r="C70" s="7">
-        <v>38869</v>
+        <v>37860</v>
       </c>
       <c r="D70" s="7">
-        <v>1313</v>
+        <v>1287</v>
       </c>
       <c r="E70" s="7">
-        <v>1009</v>
+        <v>1251</v>
       </c>
       <c r="F70" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B71" s="6">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="C71" s="7">
-        <v>39869</v>
+        <v>38869</v>
       </c>
       <c r="D71" s="7">
-        <v>1346</v>
+        <v>1313</v>
       </c>
       <c r="E71" s="7">
-        <v>1000</v>
+        <v>1009</v>
       </c>
       <c r="F71" s="7">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B72" s="6">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="C72" s="7">
-        <v>41048</v>
+        <v>39869</v>
       </c>
       <c r="D72" s="7">
-        <v>1379</v>
+        <v>1346</v>
       </c>
       <c r="E72" s="7">
-        <v>1179</v>
+        <v>1000</v>
       </c>
       <c r="F72" s="7">
         <v>33</v>
@@ -6488,779 +6517,779 @@
     </row>
     <row r="73" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B73" s="6">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="C73" s="7">
-        <v>42403</v>
+        <v>41048</v>
       </c>
       <c r="D73" s="7">
-        <v>1420</v>
+        <v>1379</v>
       </c>
       <c r="E73" s="7">
-        <v>1355</v>
+        <v>1179</v>
       </c>
       <c r="F73" s="7">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B74" s="6">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="C74" s="7">
-        <v>43851</v>
+        <v>42403</v>
       </c>
       <c r="D74" s="7">
-        <v>1451</v>
+        <v>1420</v>
       </c>
       <c r="E74" s="7">
-        <v>1448</v>
+        <v>1355</v>
       </c>
       <c r="F74" s="7">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B75" s="6">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="C75" s="7">
-        <v>45198</v>
+        <v>43851</v>
       </c>
       <c r="D75" s="7">
-        <v>1491</v>
+        <v>1451</v>
       </c>
       <c r="E75" s="7">
-        <v>1347</v>
+        <v>1448</v>
       </c>
       <c r="F75" s="7">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B76" s="6">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="C76" s="7">
-        <v>46999</v>
+        <v>45198</v>
       </c>
       <c r="D76" s="7">
-        <v>1521</v>
+        <v>1491</v>
       </c>
       <c r="E76" s="7">
-        <v>1801</v>
+        <v>1347</v>
       </c>
       <c r="F76" s="7">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B77" s="6">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="C77" s="7">
-        <v>47784</v>
+        <v>46999</v>
       </c>
       <c r="D77" s="7">
-        <v>1546</v>
+        <v>1521</v>
       </c>
       <c r="E77" s="7">
-        <v>785</v>
+        <v>1801</v>
       </c>
       <c r="F77" s="7">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B78" s="6">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="C78" s="7">
-        <v>48693</v>
+        <v>47784</v>
       </c>
       <c r="D78" s="7">
-        <v>1568</v>
+        <v>1546</v>
       </c>
       <c r="E78" s="7">
-        <v>909</v>
+        <v>785</v>
       </c>
       <c r="F78" s="7">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B79" s="6">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="C79" s="7">
-        <v>49912</v>
+        <v>48693</v>
       </c>
       <c r="D79" s="7">
-        <v>1596</v>
+        <v>1568</v>
       </c>
       <c r="E79" s="7">
-        <v>1219</v>
+        <v>909</v>
       </c>
       <c r="F79" s="7">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B80" s="6">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="C80" s="7">
-        <v>51323</v>
+        <v>49912</v>
       </c>
       <c r="D80" s="7">
-        <v>1617</v>
+        <v>1596</v>
       </c>
       <c r="E80" s="7">
-        <v>1411</v>
+        <v>1219</v>
       </c>
       <c r="F80" s="7">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B81" s="6">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="C81" s="7">
-        <v>52268</v>
+        <v>51323</v>
       </c>
       <c r="D81" s="7">
-        <v>1641</v>
+        <v>1617</v>
       </c>
       <c r="E81" s="7">
-        <v>945</v>
+        <v>1411</v>
       </c>
       <c r="F81" s="7">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B82" s="6">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="C82" s="7">
-        <v>53449</v>
+        <v>52268</v>
       </c>
       <c r="D82" s="7">
-        <v>1670</v>
+        <v>1641</v>
       </c>
       <c r="E82" s="7">
-        <v>1181</v>
+        <v>945</v>
       </c>
       <c r="F82" s="7">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B83" s="6">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="C83" s="7">
-        <v>54509</v>
+        <v>53449</v>
       </c>
       <c r="D83" s="7">
-        <v>1685</v>
+        <v>1670</v>
       </c>
       <c r="E83" s="7">
-        <v>1060</v>
+        <v>1181</v>
       </c>
       <c r="F83" s="7">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B84" s="6">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="C84" s="7">
-        <v>55348</v>
+        <v>54509</v>
       </c>
       <c r="D84" s="7">
-        <v>1717</v>
+        <v>1685</v>
       </c>
       <c r="E84" s="7">
-        <v>839</v>
+        <v>1060</v>
       </c>
       <c r="F84" s="7">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B85" s="6">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="C85" s="7">
-        <v>55971</v>
+        <v>55348</v>
       </c>
       <c r="D85" s="7">
-        <v>1748</v>
+        <v>1717</v>
       </c>
       <c r="E85" s="7">
-        <v>623</v>
+        <v>839</v>
       </c>
       <c r="F85" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B86" s="6">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="C86" s="7">
-        <v>56560</v>
+        <v>55971</v>
       </c>
       <c r="D86" s="7">
-        <v>1768</v>
+        <v>1748</v>
       </c>
       <c r="E86" s="7">
-        <v>589</v>
+        <v>623</v>
       </c>
       <c r="F86" s="7">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B87" s="6">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="C87" s="7">
-        <v>57921</v>
+        <v>56560</v>
       </c>
       <c r="D87" s="7">
-        <v>1790</v>
+        <v>1768</v>
       </c>
       <c r="E87" s="7">
-        <v>1361</v>
+        <v>589</v>
       </c>
       <c r="F87" s="7">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B88" s="6">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="C88" s="7">
-        <v>59776</v>
+        <v>57921</v>
       </c>
       <c r="D88" s="7">
-        <v>1821</v>
+        <v>1790</v>
       </c>
       <c r="E88" s="7">
-        <v>1855</v>
+        <v>1361</v>
       </c>
       <c r="F88" s="7">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B89" s="6">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="C89" s="7">
-        <v>61006</v>
+        <v>59776</v>
       </c>
       <c r="D89" s="7">
-        <v>1856</v>
+        <v>1821</v>
       </c>
       <c r="E89" s="7">
-        <v>1230</v>
+        <v>1855</v>
       </c>
       <c r="F89" s="7">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B90" s="6">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="C90" s="7">
-        <v>62338</v>
+        <v>61006</v>
       </c>
       <c r="D90" s="7">
-        <v>1888</v>
+        <v>1856</v>
       </c>
       <c r="E90" s="7">
-        <v>1332</v>
+        <v>1230</v>
       </c>
       <c r="F90" s="7">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B91" s="6">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="C91" s="7">
-        <v>64287</v>
+        <v>62338</v>
       </c>
       <c r="D91" s="7">
-        <v>1901</v>
+        <v>1888</v>
       </c>
       <c r="E91" s="7">
-        <v>1949</v>
+        <v>1332</v>
       </c>
       <c r="F91" s="7">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B92" s="6">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="C92" s="7">
-        <v>64880</v>
+        <v>64287</v>
       </c>
       <c r="D92" s="7">
-        <v>1921</v>
+        <v>1901</v>
       </c>
       <c r="E92" s="7">
-        <v>593</v>
+        <v>1949</v>
       </c>
       <c r="F92" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B93" s="6">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="C93" s="7">
-        <v>66568</v>
+        <v>64880</v>
       </c>
       <c r="D93" s="7">
-        <v>1949</v>
+        <v>1921</v>
       </c>
       <c r="E93" s="7">
-        <v>1688</v>
+        <v>593</v>
       </c>
       <c r="F93" s="7">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B94" s="6">
-        <v>43985</v>
+        <v>43984</v>
       </c>
       <c r="C94" s="7">
-        <v>68271</v>
+        <v>66568</v>
       </c>
       <c r="D94" s="7">
-        <v>1980</v>
+        <v>1949</v>
       </c>
       <c r="E94" s="7">
-        <v>1703</v>
+        <v>1688</v>
       </c>
       <c r="F94" s="7">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B95" s="6">
-        <v>43986</v>
+        <v>43985</v>
       </c>
       <c r="C95" s="7">
-        <v>69920</v>
+        <v>68271</v>
       </c>
       <c r="D95" s="7">
-        <v>2000</v>
+        <v>1980</v>
       </c>
       <c r="E95" s="7">
-        <v>1649</v>
+        <v>1703</v>
       </c>
       <c r="F95" s="7">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B96" s="6">
-        <v>43987</v>
+        <v>43986</v>
       </c>
       <c r="C96" s="7">
-        <v>71613</v>
+        <v>69920</v>
       </c>
       <c r="D96" s="7">
-        <v>2024</v>
+        <v>2000</v>
       </c>
       <c r="E96" s="7">
-        <v>1693</v>
+        <v>1649</v>
       </c>
       <c r="F96" s="7">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B97" s="6">
-        <v>43988</v>
+        <v>43987</v>
       </c>
       <c r="C97" s="7">
-        <v>73553</v>
+        <v>71613</v>
       </c>
       <c r="D97" s="7">
-        <v>2056</v>
+        <v>2024</v>
       </c>
       <c r="E97" s="7">
-        <v>1940</v>
+        <v>1693</v>
       </c>
       <c r="F97" s="7">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B98" s="6">
-        <v>43989</v>
+        <v>43988</v>
       </c>
       <c r="C98" s="7">
-        <v>74978</v>
+        <v>73553</v>
       </c>
       <c r="D98" s="7">
-        <v>2074</v>
+        <v>2056</v>
       </c>
       <c r="E98" s="7">
-        <v>1425</v>
+        <v>1940</v>
       </c>
       <c r="F98" s="7">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B99" s="6">
-        <v>43990</v>
+        <v>43989</v>
       </c>
       <c r="C99" s="7">
-        <v>75616</v>
+        <v>74978</v>
       </c>
       <c r="D99" s="7">
-        <v>2104</v>
+        <v>2074</v>
       </c>
       <c r="E99" s="7">
-        <v>638</v>
+        <v>1425</v>
       </c>
       <c r="F99" s="7">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B100" s="6">
-        <v>43991</v>
+        <v>43990</v>
       </c>
       <c r="C100" s="7">
-        <v>77253</v>
+        <v>75616</v>
       </c>
       <c r="D100" s="7">
-        <v>2137</v>
+        <v>2104</v>
       </c>
       <c r="E100" s="7">
-        <v>1637</v>
+        <v>638</v>
       </c>
       <c r="F100" s="7">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B101" s="6">
-        <v>43992</v>
+        <v>43991</v>
       </c>
       <c r="C101" s="7">
-        <v>79757</v>
+        <v>77253</v>
       </c>
       <c r="D101" s="7">
-        <v>2159</v>
+        <v>2137</v>
       </c>
       <c r="E101" s="7">
-        <v>2504</v>
+        <v>1637</v>
       </c>
       <c r="F101" s="7">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B102" s="6">
-        <v>43993</v>
+        <v>43992</v>
       </c>
       <c r="C102" s="7">
-        <v>81583</v>
+        <v>79757</v>
       </c>
       <c r="D102" s="7">
-        <v>2187</v>
+        <v>2159</v>
       </c>
       <c r="E102" s="7">
-        <v>1826</v>
+        <v>2504</v>
       </c>
       <c r="F102" s="7">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B103" s="6">
-        <v>43994</v>
+        <v>43993</v>
       </c>
       <c r="C103" s="7">
-        <v>83680</v>
+        <v>81583</v>
       </c>
       <c r="D103" s="7">
-        <v>2220</v>
+        <v>2187</v>
       </c>
       <c r="E103" s="7">
-        <v>2097</v>
+        <v>1826</v>
       </c>
       <c r="F103" s="7">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B104" s="6">
-        <v>43995</v>
+        <v>43994</v>
       </c>
       <c r="C104" s="7">
-        <v>86011</v>
+        <v>83680</v>
       </c>
       <c r="D104" s="7">
-        <v>2257</v>
+        <v>2220</v>
       </c>
       <c r="E104" s="7">
-        <v>2331</v>
+        <v>2097</v>
       </c>
       <c r="F104" s="7">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B105" s="6">
-        <v>43996</v>
+        <v>43995</v>
       </c>
       <c r="C105" s="7">
-        <v>87854</v>
+        <v>86011</v>
       </c>
       <c r="D105" s="7">
-        <v>2299</v>
+        <v>2257</v>
       </c>
       <c r="E105" s="7">
-        <v>1843</v>
+        <v>2331</v>
       </c>
       <c r="F105" s="7">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B106" s="6">
-        <v>43997</v>
+        <v>43996</v>
       </c>
       <c r="C106" s="7">
-        <v>89108</v>
+        <v>87854</v>
       </c>
       <c r="D106" s="7">
-        <v>2328</v>
+        <v>2299</v>
       </c>
       <c r="E106" s="7">
-        <v>1254</v>
+        <v>1843</v>
       </c>
       <c r="F106" s="7">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B107" s="6">
-        <v>43998</v>
+        <v>43997</v>
       </c>
       <c r="C107" s="7">
-        <v>93206</v>
+        <v>89108</v>
       </c>
       <c r="D107" s="7">
-        <v>2372</v>
+        <v>2328</v>
       </c>
       <c r="E107" s="7">
-        <v>2622</v>
+        <v>1254</v>
       </c>
       <c r="F107" s="7">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B108" s="6">
-        <v>43999</v>
+        <v>43998</v>
       </c>
       <c r="C108" s="7">
-        <v>96335</v>
+        <v>93206</v>
       </c>
       <c r="D108" s="7">
-        <v>2409</v>
+        <v>2372</v>
       </c>
       <c r="E108" s="7">
-        <v>3129</v>
+        <v>2622</v>
       </c>
       <c r="F108" s="7">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B109" s="6">
-        <v>44000</v>
+        <v>43999</v>
       </c>
       <c r="C109" s="7">
-        <v>99851</v>
+        <v>96335</v>
       </c>
       <c r="D109" s="7">
-        <v>2449</v>
+        <v>2409</v>
       </c>
       <c r="E109" s="7">
-        <v>3516</v>
+        <v>3129</v>
       </c>
       <c r="F109" s="7">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B110" s="6">
-        <v>44001</v>
+        <v>44000</v>
       </c>
       <c r="C110" s="7">
-        <v>103305</v>
+        <v>99851</v>
       </c>
       <c r="D110" s="7">
-        <v>2493</v>
+        <v>2449</v>
       </c>
       <c r="E110" s="7">
-        <v>3454</v>
+        <v>3516</v>
       </c>
       <c r="F110" s="7">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B111" s="6">
-        <v>44002</v>
+        <v>44001</v>
       </c>
       <c r="C111" s="7">
-        <v>107735</v>
+        <v>103305</v>
       </c>
       <c r="D111" s="7">
-        <v>2537</v>
+        <v>2493</v>
       </c>
       <c r="E111" s="7">
-        <v>4430</v>
+        <v>3454</v>
       </c>
       <c r="F111" s="7">
         <v>44</v>
@@ -7268,901 +7297,967 @@
     </row>
     <row r="112" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B112" s="6">
-        <v>44003</v>
+        <v>44002</v>
       </c>
       <c r="C112" s="7">
-        <v>111601</v>
+        <v>107735</v>
       </c>
       <c r="D112" s="7">
-        <v>2572</v>
+        <v>2537</v>
       </c>
       <c r="E112" s="7">
-        <v>3866</v>
+        <v>4430</v>
       </c>
       <c r="F112" s="7">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B113" s="6">
-        <v>44004</v>
+        <v>44003</v>
       </c>
       <c r="C113" s="7">
-        <v>114881</v>
+        <v>111601</v>
       </c>
       <c r="D113" s="7">
-        <v>2614</v>
+        <v>2572</v>
       </c>
       <c r="E113" s="7">
-        <v>3280</v>
+        <v>3866</v>
       </c>
       <c r="F113" s="7">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B114" s="6">
-        <v>44005</v>
+        <v>44004</v>
       </c>
       <c r="C114" s="7">
-        <v>120370</v>
+        <v>114881</v>
       </c>
       <c r="D114" s="7">
-        <v>2654</v>
+        <v>2614</v>
       </c>
       <c r="E114" s="7">
-        <v>5489</v>
+        <v>3280</v>
       </c>
       <c r="F114" s="7">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B115" s="6">
-        <v>44006</v>
+        <v>44005</v>
       </c>
       <c r="C115" s="7">
-        <v>125921</v>
+        <v>120370</v>
       </c>
       <c r="D115" s="7">
-        <v>2719</v>
+        <v>2654</v>
       </c>
       <c r="E115" s="7">
-        <v>5551</v>
+        <v>5489</v>
       </c>
       <c r="F115" s="7">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B116" s="6">
-        <v>44007</v>
+        <v>44006</v>
       </c>
       <c r="C116" s="7">
-        <v>131917</v>
+        <v>125921</v>
       </c>
       <c r="D116" s="7">
-        <v>2777</v>
+        <v>2719</v>
       </c>
       <c r="E116" s="7">
-        <v>5996</v>
+        <v>5551</v>
       </c>
       <c r="F116" s="7">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B117" s="6">
-        <v>44008</v>
+        <v>44007</v>
       </c>
       <c r="C117" s="7">
-        <v>137624</v>
+        <v>131917</v>
       </c>
       <c r="D117" s="7">
-        <v>2844</v>
+        <v>2777</v>
       </c>
       <c r="E117" s="7">
-        <v>5707</v>
+        <v>5996</v>
       </c>
       <c r="F117" s="7">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B118" s="6">
-        <v>44009</v>
+        <v>44008</v>
       </c>
       <c r="C118" s="7">
-        <v>143366</v>
+        <v>137624</v>
       </c>
       <c r="D118" s="7">
-        <v>2921</v>
+        <v>2844</v>
       </c>
       <c r="E118" s="7">
-        <v>5742</v>
+        <v>5707</v>
       </c>
       <c r="F118" s="7">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B119" s="6">
-        <v>44010</v>
+        <v>44009</v>
       </c>
       <c r="C119" s="7">
-        <v>148723</v>
+        <v>143366</v>
       </c>
       <c r="D119" s="7">
-        <v>3007</v>
+        <v>2921</v>
       </c>
       <c r="E119" s="7">
-        <v>5357</v>
+        <v>5742</v>
       </c>
       <c r="F119" s="7">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B120" s="6">
-        <v>44011</v>
+        <v>44010</v>
       </c>
       <c r="C120" s="7">
-        <v>153011</v>
+        <v>148723</v>
       </c>
       <c r="D120" s="7">
-        <v>3092</v>
+        <v>3007</v>
       </c>
       <c r="E120" s="7">
-        <v>4288</v>
+        <v>5357</v>
       </c>
       <c r="F120" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B121" s="6">
-        <v>44012</v>
+        <v>44011</v>
       </c>
       <c r="C121" s="7">
-        <v>159986</v>
+        <v>153011</v>
       </c>
       <c r="D121" s="7">
-        <v>3177</v>
+        <v>3093</v>
       </c>
       <c r="E121" s="7">
-        <v>6975</v>
+        <v>4288</v>
       </c>
       <c r="F121" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B122" s="6">
-        <v>44013</v>
+        <v>44012</v>
       </c>
       <c r="C122" s="7">
-        <v>168062</v>
+        <v>159986</v>
       </c>
       <c r="D122" s="7">
-        <v>3268</v>
+        <v>3180</v>
       </c>
       <c r="E122" s="7">
-        <v>8076</v>
+        <v>6975</v>
       </c>
       <c r="F122" s="7">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B123" s="6">
-        <v>44014</v>
+        <v>44013</v>
       </c>
       <c r="C123" s="7">
-        <v>175977</v>
+        <v>168062</v>
       </c>
       <c r="D123" s="7">
-        <v>3373</v>
+        <v>3271</v>
       </c>
       <c r="E123" s="7">
-        <v>7915</v>
+        <v>8076</v>
       </c>
       <c r="F123" s="7">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B124" s="6">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="C124" s="7">
-        <v>183532</v>
+        <v>175977</v>
       </c>
       <c r="D124" s="7">
-        <v>3498</v>
+        <v>3379</v>
       </c>
       <c r="E124" s="7">
-        <v>7555</v>
+        <v>7915</v>
       </c>
       <c r="F124" s="7">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B125" s="6">
-        <v>44016</v>
+        <v>44015</v>
       </c>
       <c r="C125" s="7">
-        <v>191790</v>
+        <v>183532</v>
       </c>
       <c r="D125" s="7">
-        <v>3628</v>
+        <v>3504</v>
       </c>
       <c r="E125" s="7">
-        <v>8258</v>
+        <v>7555</v>
       </c>
       <c r="F125" s="7">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B126" s="6">
-        <v>44017</v>
+        <v>44016</v>
       </c>
       <c r="C126" s="7">
-        <v>195239</v>
+        <v>191790</v>
       </c>
       <c r="D126" s="7">
-        <v>3740</v>
+        <v>3635</v>
       </c>
       <c r="E126" s="7">
-        <v>3449</v>
+        <v>8258</v>
       </c>
       <c r="F126" s="7">
-        <v>112</v>
+        <v>131</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B127" s="6">
-        <v>44018</v>
+        <v>44017</v>
       </c>
       <c r="C127" s="7">
-        <v>200557</v>
+        <v>195239</v>
       </c>
       <c r="D127" s="7">
-        <v>3867</v>
+        <v>3747</v>
       </c>
       <c r="E127" s="7">
-        <v>5318</v>
+        <v>3449</v>
       </c>
       <c r="F127" s="7">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B128" s="6">
-        <v>44019</v>
+        <v>44018</v>
       </c>
       <c r="C128" s="7">
-        <v>210585</v>
+        <v>200557</v>
       </c>
       <c r="D128" s="7">
-        <v>4008</v>
+        <v>3876</v>
       </c>
       <c r="E128" s="7">
-        <v>10028</v>
+        <v>5318</v>
       </c>
       <c r="F128" s="7">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B129" s="6">
-        <v>44020</v>
+        <v>44019</v>
       </c>
       <c r="C129" s="7">
-        <v>220564</v>
+        <v>210585</v>
       </c>
       <c r="D129" s="7">
-        <v>4168</v>
+        <v>4019</v>
       </c>
       <c r="E129" s="7">
-        <v>9979</v>
+        <v>10028</v>
       </c>
       <c r="F129" s="7">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B130" s="6">
-        <v>44021</v>
+        <v>44020</v>
       </c>
       <c r="C130" s="7">
-        <v>230346</v>
+        <v>220564</v>
       </c>
       <c r="D130" s="7">
-        <v>4321</v>
+        <v>4185</v>
       </c>
       <c r="E130" s="7">
-        <v>9782</v>
+        <v>9979</v>
       </c>
       <c r="F130" s="7">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B131" s="6">
-        <v>44022</v>
+        <v>44021</v>
       </c>
       <c r="C131" s="7">
-        <v>240111</v>
+        <v>230346</v>
       </c>
       <c r="D131" s="7">
-        <v>4487</v>
+        <v>4341</v>
       </c>
       <c r="E131" s="7">
-        <v>9765</v>
+        <v>9782</v>
       </c>
       <c r="F131" s="7">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B132" s="6">
-        <v>44023</v>
+        <v>44022</v>
       </c>
       <c r="C132" s="7">
-        <v>250462</v>
+        <v>240111</v>
       </c>
       <c r="D132" s="7">
-        <v>4652</v>
+        <v>4511</v>
       </c>
       <c r="E132" s="7">
-        <v>10351</v>
+        <v>9765</v>
       </c>
       <c r="F132" s="7">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B133" s="6">
-        <v>44024</v>
+        <v>44023</v>
       </c>
       <c r="C133" s="7">
-        <v>258658</v>
+        <v>250462</v>
       </c>
       <c r="D133" s="7">
-        <v>4836</v>
+        <v>4682</v>
       </c>
       <c r="E133" s="7">
-        <v>8196</v>
+        <v>10351</v>
       </c>
       <c r="F133" s="7">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B134" s="6">
-        <v>44025</v>
+        <v>44024</v>
       </c>
       <c r="C134" s="7">
-        <v>264313</v>
+        <v>258658</v>
       </c>
       <c r="D134" s="7">
-        <v>5010</v>
+        <v>4868</v>
       </c>
       <c r="E134" s="7">
-        <v>5655</v>
+        <v>8196</v>
       </c>
       <c r="F134" s="7">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B135" s="6">
-        <v>44026</v>
+        <v>44025</v>
       </c>
       <c r="C135" s="7">
-        <v>271574</v>
+        <v>264313</v>
       </c>
       <c r="D135" s="7">
-        <v>5207</v>
+        <v>5046</v>
       </c>
       <c r="E135" s="7">
-        <v>10745</v>
+        <v>5655</v>
       </c>
       <c r="F135" s="7">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B136" s="6">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="C136" s="7">
-        <v>282365</v>
+        <v>271574</v>
       </c>
       <c r="D136" s="7">
-        <v>5391</v>
+        <v>5246</v>
       </c>
       <c r="E136" s="7">
-        <v>10791</v>
+        <v>10745</v>
       </c>
       <c r="F136" s="7">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B137" s="6">
-        <v>44028</v>
+        <v>44027</v>
       </c>
       <c r="C137" s="7">
-        <v>292656</v>
+        <v>282365</v>
       </c>
       <c r="D137" s="7">
-        <v>5568</v>
+        <v>5438</v>
       </c>
       <c r="E137" s="7">
-        <v>10291</v>
+        <v>10791</v>
       </c>
       <c r="F137" s="7">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B138" s="6">
-        <v>44029</v>
+        <v>44028</v>
       </c>
       <c r="C138" s="7">
-        <v>307572</v>
+        <v>292656</v>
       </c>
       <c r="D138" s="7">
-        <v>5724</v>
+        <v>5621</v>
       </c>
       <c r="E138" s="7">
-        <v>10256</v>
+        <v>10291</v>
       </c>
       <c r="F138" s="7">
-        <v>156</v>
+        <v>183</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B139" s="6">
-        <v>44030</v>
+        <v>44029</v>
       </c>
       <c r="C139" s="7">
-        <v>317730</v>
+        <v>307572</v>
       </c>
       <c r="D139" s="7">
-        <v>5856</v>
+        <v>5782</v>
       </c>
       <c r="E139" s="7">
-        <v>10158</v>
+        <v>10256</v>
       </c>
       <c r="F139" s="7">
-        <v>132</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B140" s="6">
-        <v>44031</v>
+        <v>44030</v>
       </c>
       <c r="C140" s="7">
-        <v>325030</v>
+        <v>317730</v>
       </c>
       <c r="D140" s="7">
-        <v>6004</v>
+        <v>5918</v>
       </c>
       <c r="E140" s="7">
-        <v>7300</v>
+        <v>10158</v>
       </c>
       <c r="F140" s="7">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B141" s="6">
-        <v>44032</v>
+        <v>44031</v>
       </c>
       <c r="C141" s="7">
-        <v>332434</v>
+        <v>325030</v>
       </c>
       <c r="D141" s="7">
-        <v>6167</v>
+        <v>6075</v>
       </c>
       <c r="E141" s="7">
-        <v>7404</v>
+        <v>7300</v>
       </c>
       <c r="F141" s="7">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B142" s="6">
-        <v>44033</v>
+        <v>44032</v>
       </c>
       <c r="C142" s="7">
-        <v>341739</v>
+        <v>332434</v>
       </c>
       <c r="D142" s="7">
-        <v>6302</v>
+        <v>6247</v>
       </c>
       <c r="E142" s="7">
-        <v>9305</v>
+        <v>7404</v>
       </c>
       <c r="F142" s="7">
-        <v>135</v>
+        <v>172</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B143" s="6">
-        <v>44034</v>
+        <v>44033</v>
       </c>
       <c r="C143" s="7">
-        <v>351618</v>
+        <v>341739</v>
       </c>
       <c r="D143" s="7">
-        <v>6439</v>
+        <v>6392</v>
       </c>
       <c r="E143" s="7">
-        <v>9879</v>
+        <v>9305</v>
       </c>
       <c r="F143" s="7">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B144" s="6">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="C144" s="7">
-        <v>361125</v>
+        <v>351618</v>
       </c>
       <c r="D144" s="7">
-        <v>6557</v>
+        <v>6542</v>
       </c>
       <c r="E144" s="7">
-        <v>9507</v>
+        <v>9879</v>
       </c>
       <c r="F144" s="7">
-        <v>118</v>
+        <v>150</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B145" s="6">
-        <v>44036</v>
+        <v>44035</v>
       </c>
       <c r="C145" s="7">
-        <v>369826</v>
+        <v>361125</v>
       </c>
       <c r="D145" s="7">
-        <v>6646</v>
+        <v>6672</v>
       </c>
       <c r="E145" s="7">
-        <v>8701</v>
+        <v>9507</v>
       </c>
       <c r="F145" s="7">
-        <v>89</v>
+        <v>130</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B146" s="6">
-        <v>44037</v>
+        <v>44036</v>
       </c>
       <c r="C146" s="7">
-        <v>375846</v>
+        <v>369826</v>
       </c>
       <c r="D146" s="7">
-        <v>6700</v>
+        <v>6778</v>
       </c>
       <c r="E146" s="7">
-        <v>8112</v>
+        <v>8701</v>
       </c>
       <c r="F146" s="7">
-        <v>54</v>
+        <v>106</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B147" s="6">
-        <v>44038</v>
+        <v>44037</v>
       </c>
       <c r="C147" s="7">
-        <v>381656</v>
+        <v>375846</v>
       </c>
       <c r="D147" s="7">
-        <v>6755</v>
+        <v>6842</v>
       </c>
       <c r="E147" s="7">
-        <v>5810</v>
+        <v>8112</v>
       </c>
       <c r="F147" s="7">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B148" s="6">
-        <v>44039</v>
+        <v>44038</v>
       </c>
       <c r="C148" s="7">
-        <v>385923</v>
+        <v>381656</v>
       </c>
       <c r="D148" s="7">
-        <v>6795</v>
+        <v>6903</v>
       </c>
       <c r="E148" s="7">
-        <v>4267</v>
+        <v>5810</v>
       </c>
       <c r="F148" s="7">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B149" s="6">
-        <v>44040</v>
+        <v>44039</v>
       </c>
       <c r="C149" s="7">
-        <v>394265</v>
+        <v>385923</v>
       </c>
       <c r="D149" s="7">
-        <v>6825</v>
+        <v>6952</v>
       </c>
       <c r="E149" s="7">
-        <v>8342</v>
+        <v>4267</v>
       </c>
       <c r="F149" s="7">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B150" s="6">
-        <v>44041</v>
+        <v>44040</v>
       </c>
       <c r="C150" s="7">
-        <v>403307</v>
+        <v>394265</v>
       </c>
       <c r="D150" s="7">
-        <v>6835</v>
+        <v>6992</v>
       </c>
       <c r="E150" s="7">
-        <v>9042</v>
+        <v>8342</v>
       </c>
       <c r="F150" s="7">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B151" s="6">
-        <v>44042</v>
+        <v>44041</v>
       </c>
       <c r="C151" s="7">
-        <v>412107</v>
+        <v>403307</v>
       </c>
       <c r="D151" s="7">
-        <v>6837</v>
+        <v>7011</v>
       </c>
       <c r="E151" s="7">
-        <v>8800</v>
+        <v>9042</v>
       </c>
       <c r="F151" s="7">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B152" s="6">
-        <v>44043</v>
+        <v>44042</v>
       </c>
       <c r="C152" s="7">
-        <v>420946</v>
+        <v>412107</v>
       </c>
       <c r="D152" s="7">
-        <v>6837</v>
+        <v>7016</v>
       </c>
       <c r="E152" s="7">
-        <v>8839</v>
+        <v>8800</v>
       </c>
       <c r="F152" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B153" s="6">
+        <v>44043</v>
+      </c>
+      <c r="C153" s="7">
+        <v>420946</v>
+      </c>
+      <c r="D153" s="7">
+        <v>7016</v>
+      </c>
+      <c r="E153" s="7">
+        <v>8839</v>
+      </c>
+      <c r="F153" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B154" s="6">
         <v>44044</v>
       </c>
-      <c r="C153" s="7">
+      <c r="C154" s="7">
         <v>430485</v>
       </c>
-      <c r="D153" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="E153" s="7">
+      <c r="D154" s="7">
+        <v>7016</v>
+      </c>
+      <c r="E154" s="7">
         <v>9539</v>
       </c>
-      <c r="F153" s="7" t="s">
-        <v>269</v>
+      <c r="F154" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="14" t="s">
+      <c r="A155" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B155" s="6">
+        <v>44045</v>
+      </c>
+      <c r="C155" s="7">
+        <v>436711</v>
+      </c>
+      <c r="D155" s="7">
+        <v>7016</v>
+      </c>
+      <c r="E155" s="7">
+        <v>6226</v>
+      </c>
+      <c r="F155" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="B156" s="6">
+        <v>44046</v>
+      </c>
+      <c r="C156" s="7">
+        <v>442014</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E156" s="7">
+        <v>5839</v>
+      </c>
+      <c r="F156" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="B155" s="13"/>
-      <c r="C155" s="13"/>
-      <c r="D155" s="13"/>
-      <c r="E155" s="13"/>
-      <c r="F155" s="13"/>
-    </row>
-    <row r="156" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="B158" s="19"/>
+      <c r="C158" s="19"/>
+      <c r="D158" s="19"/>
+      <c r="E158" s="19"/>
+      <c r="F158" s="19"/>
+    </row>
+    <row r="160" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="11" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+    <row r="161" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="11" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+    <row r="162" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="11" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+    <row r="163" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="11" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+    <row r="164" spans="1:1" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="11" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+    <row r="166" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="11" t="s">
         <v>349</v>
       </c>
     </row>
+    <row r="167" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="11" t="s">
+        <v>351</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A158:F158"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8172,7 +8267,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="I22" sqref="I22"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -8183,32 +8278,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="B1" s="13"/>
+      <c r="A1" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>282604.40000000002</v>
+        <v>297421.59999999998</v>
       </c>
       <c r="B3" s="8">
-        <v>141044</v>
+        <v>137576</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="B5" s="13"/>
+      <c r="A5" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8222,12 +8317,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:H1"/>
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="I22" sqref="I22"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8235,46 +8330,46 @@
     <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:8" ht="54.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E2" s="15" t="s">
         <v>282</v>
       </c>
+      <c r="E2" s="13" t="s">
+        <v>283</v>
+      </c>
       <c r="F2" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8282,25 +8377,25 @@
         <v>43925</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D3" s="8">
         <v>63751</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="14">
         <v>0.1056</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8308,25 +8403,25 @@
         <v>43926</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D4" s="8">
         <v>70938</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <v>9.3299999999999994E-2</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8334,25 +8429,25 @@
         <v>43927</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D5" s="8">
         <v>85357</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>8.8909998585200004E-2</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8360,25 +8455,25 @@
         <v>43928</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D6" s="8">
         <v>88649</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <v>0.1094</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8386,25 +8481,25 @@
         <v>43929</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D7" s="8">
         <v>96258</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <v>0.11070000000000001</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8412,25 +8507,25 @@
         <v>43930</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D8" s="8">
         <v>106134</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>0.100351636462</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8438,25 +8533,25 @@
         <v>43931</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D9" s="8">
         <v>115918</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>0.1055125178708</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8464,25 +8559,25 @@
         <v>43932</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D10" s="8">
         <v>120533</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <v>0.11360000000000001</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8490,25 +8585,25 @@
         <v>43933</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D11" s="8">
         <v>124553</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>0.12479999999999999</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8516,25 +8611,25 @@
         <v>43934</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D12" s="8">
         <v>133226</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>0.1386</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8542,25 +8637,25 @@
         <v>43935</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D13" s="8">
         <v>146467</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <v>0.1101</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8568,25 +8663,25 @@
         <v>43936</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D14" s="8">
         <v>151810</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="14">
         <v>0.1105</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8594,25 +8689,25 @@
         <v>43937</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D15" s="8">
         <v>158547</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="14">
         <v>0.1188</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8620,25 +8715,25 @@
         <v>43938</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D16" s="8">
         <v>169536</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="14">
         <v>0.10630000000000001</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8646,25 +8741,25 @@
         <v>43939</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D17" s="8">
         <v>176239</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="14">
         <v>0.1023</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8672,25 +8767,25 @@
         <v>43940</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D18" s="8">
         <v>182710</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="14">
         <v>9.35E-2</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8698,25 +8793,25 @@
         <v>43941</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D19" s="8">
         <v>190394</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="14">
         <v>9.7117268401900006E-2</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8724,25 +8819,25 @@
         <v>43942</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D20" s="8">
         <v>205399</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="14">
         <v>9.4500000000000001E-2</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8750,25 +8845,25 @@
         <v>43943</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D21" s="8">
         <v>216783</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="14">
         <v>8.5800000000000001E-2</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8776,25 +8871,25 @@
         <v>43944</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D22" s="8">
         <v>225078</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="14">
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8802,25 +8897,25 @@
         <v>43945</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D23" s="8">
         <v>242547</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="14">
         <v>7.4399999999999994E-2</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8828,25 +8923,25 @@
         <v>43946</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D24" s="8">
         <v>262816</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="14">
         <v>6.3700000000000007E-2</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8854,25 +8949,25 @@
         <v>43947</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D25" s="8">
         <v>276021</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="14">
         <v>6.1199999999999997E-2</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8880,25 +8975,25 @@
         <v>43948</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D26" s="8">
         <v>290517</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="14">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8906,25 +9001,25 @@
         <v>43949</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D27" s="8">
         <v>300384</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="14">
         <v>6.2899999999999998E-2</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8932,25 +9027,25 @@
         <v>43950</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D28" s="8">
         <v>314790</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="14">
         <v>6.10670666381E-2</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8958,25 +9053,25 @@
         <v>43951</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D29" s="8">
         <v>330300</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="14">
         <v>5.8381327098900003E-2</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8984,25 +9079,25 @@
         <v>43952</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D30" s="8">
         <v>351775</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="14">
         <v>5.8799999999999998E-2</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9010,25 +9105,25 @@
         <v>43953</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D31" s="8">
         <v>380648</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="14">
         <v>5.7299999999999997E-2</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9036,25 +9131,25 @@
         <v>43954</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D32" s="8">
         <v>390560</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="14">
         <v>6.0400000000000002E-2</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9062,25 +9157,25 @@
         <v>43955</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D33" s="8">
         <v>407398</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="14">
         <v>6.0199999999999997E-2</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9088,25 +9183,25 @@
         <v>43956</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D34" s="8">
         <v>427210</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="14">
         <v>5.6754924069199998E-2</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9114,25 +9209,25 @@
         <v>43957</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D35" s="8">
         <v>438938</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="14">
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9140,25 +9235,25 @@
         <v>43958</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D36" s="8">
         <v>455162</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="14">
         <v>5.8500000000000003E-2</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9166,25 +9261,25 @@
         <v>43959</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D37" s="8">
         <v>477118</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="14">
         <v>5.8900000000000001E-2</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9200,17 +9295,17 @@
       <c r="D38" s="8">
         <v>489294</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="14">
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9226,17 +9321,17 @@
       <c r="D39" s="8">
         <v>513978</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="14">
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9252,17 +9347,17 @@
       <c r="D40" s="8">
         <v>525697</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="14">
         <v>6.3711443038399998E-2</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9278,17 +9373,17 @@
       <c r="D41" s="8">
         <v>538172</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="14">
         <v>6.9199999999999998E-2</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9304,17 +9399,17 @@
       <c r="D42" s="8">
         <v>587431</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="14">
         <v>5.3699999999999998E-2</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9330,17 +9425,17 @@
       <c r="D43" s="8">
         <v>623284</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="14">
         <v>5.0299999999999997E-2</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9356,17 +9451,17 @@
       <c r="D44" s="8">
         <v>645992</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="14">
         <v>5.0900000000000001E-2</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9382,7 +9477,7 @@
       <c r="D45" s="8">
         <v>678471</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="14">
         <v>4.8300000000000003E-2</v>
       </c>
       <c r="F45" s="8">
@@ -9408,7 +9503,7 @@
       <c r="D46" s="8">
         <v>693276</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="14">
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="F46" s="8">
@@ -9434,7 +9529,7 @@
       <c r="D47" s="8">
         <v>723013</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E47" s="14">
         <v>4.4720144337000001E-2</v>
       </c>
       <c r="F47" s="8">
@@ -9460,7 +9555,7 @@
       <c r="D48" s="8">
         <v>744937</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="14">
         <v>4.7E-2</v>
       </c>
       <c r="F48" s="8">
@@ -9486,7 +9581,7 @@
       <c r="D49" s="8">
         <v>770241</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E49" s="14">
         <v>5.4300000000000001E-2</v>
       </c>
       <c r="F49" s="8">
@@ -9512,7 +9607,7 @@
       <c r="D50" s="8">
         <v>800433</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E50" s="14">
         <v>5.5100000000000003E-2</v>
       </c>
       <c r="F50" s="8">
@@ -9538,7 +9633,7 @@
       <c r="D51" s="8">
         <v>834437</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="14">
         <v>5.3900000000000003E-2</v>
       </c>
       <c r="F51" s="8">
@@ -9556,22 +9651,22 @@
         <v>43974</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D52" s="8">
         <v>870935</v>
       </c>
-      <c r="E52" s="16" t="s">
-        <v>269</v>
+      <c r="E52" s="14" t="s">
+        <v>274</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H52" s="8">
         <v>27495</v>
@@ -9590,7 +9685,7 @@
       <c r="D53" s="8">
         <v>886354</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E53" s="14">
         <v>4.87E-2</v>
       </c>
       <c r="F53" s="8">
@@ -9616,7 +9711,7 @@
       <c r="D54" s="8">
         <v>906074</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E54" s="14">
         <v>5.1499999999999997E-2</v>
       </c>
       <c r="F54" s="8">
@@ -9642,7 +9737,7 @@
       <c r="D55" s="8">
         <v>943239</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E55" s="14">
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="F55" s="8">
@@ -9668,7 +9763,7 @@
       <c r="D56" s="8">
         <v>961861</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E56" s="14">
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="F56" s="8">
@@ -9694,7 +9789,7 @@
       <c r="D57" s="8">
         <v>989994</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E57" s="14">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="F57" s="8">
@@ -9720,7 +9815,7 @@
       <c r="D58" s="8">
         <v>1027449</v>
       </c>
-      <c r="E58" s="16">
+      <c r="E58" s="14">
         <v>4.5600000000000002E-2</v>
       </c>
       <c r="F58" s="8">
@@ -9746,14 +9841,14 @@
       <c r="D59" s="8">
         <v>1054793</v>
       </c>
-      <c r="E59" s="16" t="s">
-        <v>269</v>
+      <c r="E59" s="14" t="s">
+        <v>274</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H59" s="8">
         <v>26265</v>
@@ -9772,7 +9867,7 @@
       <c r="D60" s="8">
         <v>1073491</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="14">
         <v>5.43810873784E-2</v>
       </c>
       <c r="F60" s="8">
@@ -9798,7 +9893,7 @@
       <c r="D61" s="8">
         <v>1093676</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E61" s="14">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="F61" s="8">
@@ -9824,7 +9919,7 @@
       <c r="D62" s="8">
         <v>1117274</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E62" s="14">
         <v>6.6199999999999995E-2</v>
       </c>
       <c r="F62" s="8">
@@ -9850,7 +9945,7 @@
       <c r="D63" s="8">
         <v>1150868</v>
       </c>
-      <c r="E63" s="16">
+      <c r="E63" s="14">
         <v>6.2600000000000003E-2</v>
       </c>
       <c r="F63" s="8">
@@ -9876,7 +9971,7 @@
       <c r="D64" s="8">
         <v>1174948</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E64" s="14">
         <v>6.0299999999999999E-2</v>
       </c>
       <c r="F64" s="8">
@@ -9902,7 +9997,7 @@
       <c r="D65" s="8">
         <v>1209187</v>
       </c>
-      <c r="E65" s="16">
+      <c r="E65" s="14">
         <v>6.4399999999999999E-2</v>
       </c>
       <c r="F65" s="8">
@@ -9928,7 +10023,7 @@
       <c r="D66" s="8">
         <v>1218955</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E66" s="14">
         <v>0.08</v>
       </c>
       <c r="F66" s="8">
@@ -9954,7 +10049,7 @@
       <c r="D67" s="8">
         <v>1255899</v>
       </c>
-      <c r="E67" s="16">
+      <c r="E67" s="14">
         <v>7.11381708088E-2</v>
       </c>
       <c r="F67" s="8">
@@ -9980,7 +10075,7 @@
       <c r="D68" s="8">
         <v>1286139</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E68" s="14">
         <v>6.6600000000000006E-2</v>
       </c>
       <c r="F68" s="8">
@@ -10006,7 +10101,7 @@
       <c r="D69" s="8">
         <v>1302049</v>
       </c>
-      <c r="E69" s="16">
+      <c r="E69" s="14">
         <v>6.9199999999999998E-2</v>
       </c>
       <c r="F69" s="8">
@@ -10032,7 +10127,7 @@
       <c r="D70" s="8">
         <v>1348893</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E70" s="14">
         <v>6.8500000000000005E-2</v>
       </c>
       <c r="F70" s="8">
@@ -10058,7 +10153,7 @@
       <c r="D71" s="8">
         <v>1370131</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E71" s="14">
         <v>7.0499999999999993E-2</v>
       </c>
       <c r="F71" s="8">
@@ -10084,7 +10179,7 @@
       <c r="D72" s="8">
         <v>1404369</v>
       </c>
-      <c r="E72" s="16">
+      <c r="E72" s="14">
         <v>7.22E-2</v>
       </c>
       <c r="F72" s="8">
@@ -10110,7 +10205,7 @@
       <c r="D73" s="8">
         <v>1442950</v>
       </c>
-      <c r="E73" s="16">
+      <c r="E73" s="14">
         <v>6.1100000000000002E-2</v>
       </c>
       <c r="F73" s="8">
@@ -10136,7 +10231,7 @@
       <c r="D74" s="8">
         <v>1463851</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E74" s="14">
         <v>6.6219239373599997E-2</v>
       </c>
       <c r="F74" s="8">
@@ -10162,7 +10257,7 @@
       <c r="D75" s="8">
         <v>1499015</v>
       </c>
-      <c r="E75" s="16">
+      <c r="E75" s="14">
         <v>6.7100000000000007E-2</v>
       </c>
       <c r="F75" s="8">
@@ -10188,7 +10283,7 @@
       <c r="D76" s="8">
         <v>1522434</v>
       </c>
-      <c r="E76" s="16">
+      <c r="E76" s="14">
         <v>6.9400000000000003E-2</v>
       </c>
       <c r="F76" s="8">
@@ -10214,7 +10309,7 @@
       <c r="D77" s="8">
         <v>1560537</v>
       </c>
-      <c r="E77" s="16">
+      <c r="E77" s="14">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="F77" s="8">
@@ -10240,7 +10335,7 @@
       <c r="D78" s="8">
         <v>1576925</v>
       </c>
-      <c r="E78" s="16">
+      <c r="E78" s="14">
         <v>8.5257188117199997E-2</v>
       </c>
       <c r="F78" s="8">
@@ -10266,7 +10361,7 @@
       <c r="D79" s="8">
         <v>1622851</v>
       </c>
-      <c r="E79" s="16">
+      <c r="E79" s="14">
         <v>8.9399999999999993E-2</v>
       </c>
       <c r="F79" s="8">
@@ -10292,7 +10387,7 @@
       <c r="D80" s="8">
         <v>1690124</v>
       </c>
-      <c r="E80" s="16">
+      <c r="E80" s="14">
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="F80" s="8">
@@ -10318,7 +10413,7 @@
       <c r="D81" s="8">
         <v>1715177</v>
       </c>
-      <c r="E81" s="16">
+      <c r="E81" s="14">
         <v>9.5100000000000004E-2</v>
       </c>
       <c r="F81" s="8">
@@ -10344,7 +10439,7 @@
       <c r="D82" s="8">
         <v>1767701</v>
       </c>
-      <c r="E82" s="16">
+      <c r="E82" s="14">
         <v>9.64E-2</v>
       </c>
       <c r="F82" s="8">
@@ -10370,7 +10465,7 @@
       <c r="D83" s="8">
         <v>1805642</v>
       </c>
-      <c r="E83" s="16">
+      <c r="E83" s="14">
         <v>0.1042</v>
       </c>
       <c r="F83" s="8">
@@ -10396,7 +10491,7 @@
       <c r="D84" s="8">
         <v>1836037</v>
       </c>
-      <c r="E84" s="16">
+      <c r="E84" s="14">
         <v>0.1176</v>
       </c>
       <c r="F84" s="8">
@@ -10422,7 +10517,7 @@
       <c r="D85" s="8">
         <v>1875197</v>
       </c>
-      <c r="E85" s="16">
+      <c r="E85" s="14">
         <v>0.1173</v>
       </c>
       <c r="F85" s="8">
@@ -10448,7 +10543,7 @@
       <c r="D86" s="8">
         <v>1903661</v>
       </c>
-      <c r="E86" s="16">
+      <c r="E86" s="14">
         <v>0.1323</v>
       </c>
       <c r="F86" s="8">
@@ -10474,7 +10569,7 @@
       <c r="D87" s="8">
         <v>1959617</v>
       </c>
-      <c r="E87" s="16">
+      <c r="E87" s="14">
         <v>0.1431</v>
       </c>
       <c r="F87" s="8">
@@ -10500,7 +10595,7 @@
       <c r="D88" s="8">
         <v>2006724</v>
       </c>
-      <c r="E88" s="16">
+      <c r="E88" s="14">
         <v>0.13739999999999999</v>
       </c>
       <c r="F88" s="8">
@@ -10526,7 +10621,7 @@
       <c r="D89" s="8">
         <v>2061939</v>
       </c>
-      <c r="E89" s="16">
+      <c r="E89" s="14">
         <v>0.14019999999999999</v>
       </c>
       <c r="F89" s="8">
@@ -10552,7 +10647,7 @@
       <c r="D90" s="8">
         <v>2119036</v>
       </c>
-      <c r="E90" s="16">
+      <c r="E90" s="14">
         <v>0.1358</v>
       </c>
       <c r="F90" s="8">
@@ -10578,7 +10673,7 @@
       <c r="D91" s="8">
         <v>2174548</v>
       </c>
-      <c r="E91" s="16">
+      <c r="E91" s="14">
         <v>0.13320000000000001</v>
       </c>
       <c r="F91" s="8">
@@ -10604,7 +10699,7 @@
       <c r="D92" s="8">
         <v>2212947</v>
       </c>
-      <c r="E92" s="16">
+      <c r="E92" s="14">
         <v>0.13919999999999999</v>
       </c>
       <c r="F92" s="8">
@@ -10630,7 +10725,7 @@
       <c r="D93" s="8">
         <v>2273591</v>
       </c>
-      <c r="E93" s="16">
+      <c r="E93" s="14">
         <v>0.13150000000000001</v>
       </c>
       <c r="F93" s="8">
@@ -10656,7 +10751,7 @@
       <c r="D94" s="8">
         <v>2338098</v>
       </c>
-      <c r="E94" s="16">
+      <c r="E94" s="14">
         <v>0.13519999999999999</v>
       </c>
       <c r="F94" s="8">
@@ -10682,7 +10777,7 @@
       <c r="D95" s="8">
         <v>2371709</v>
       </c>
-      <c r="E95" s="16">
+      <c r="E95" s="14">
         <v>0.13500000000000001</v>
       </c>
       <c r="F95" s="8">
@@ -10708,7 +10803,7 @@
       <c r="D96" s="8">
         <v>2431861</v>
       </c>
-      <c r="E96" s="16">
+      <c r="E96" s="14">
         <v>0.1351</v>
       </c>
       <c r="F96" s="8">
@@ -10734,7 +10829,7 @@
       <c r="D97" s="8">
         <v>2471029</v>
       </c>
-      <c r="E97" s="16">
+      <c r="E97" s="14">
         <v>0.15029999999999999</v>
       </c>
       <c r="F97" s="8">
@@ -10760,7 +10855,7 @@
       <c r="D98" s="8">
         <v>2526940</v>
       </c>
-      <c r="E98" s="16">
+      <c r="E98" s="14">
         <v>0.15559999999999999</v>
       </c>
       <c r="F98" s="8">
@@ -10786,7 +10881,7 @@
       <c r="D99" s="8">
         <v>2603903</v>
       </c>
-      <c r="E99" s="16">
+      <c r="E99" s="14">
         <v>0.14460000000000001</v>
       </c>
       <c r="F99" s="8">
@@ -10812,7 +10907,7 @@
       <c r="D100" s="8">
         <v>2644496</v>
       </c>
-      <c r="E100" s="16">
+      <c r="E100" s="14">
         <v>0.15809999999999999</v>
       </c>
       <c r="F100" s="8">
@@ -10838,7 +10933,7 @@
       <c r="D101" s="8">
         <v>2710290</v>
       </c>
-      <c r="E101" s="16">
+      <c r="E101" s="14">
         <v>0.1633</v>
       </c>
       <c r="F101" s="8">
@@ -10864,7 +10959,7 @@
       <c r="D102" s="8">
         <v>2757859</v>
       </c>
-      <c r="E102" s="16">
+      <c r="E102" s="14">
         <v>0.16850000000000001</v>
       </c>
       <c r="F102" s="8">
@@ -10890,7 +10985,7 @@
       <c r="D103" s="8">
         <v>2820803</v>
       </c>
-      <c r="E103" s="16">
+      <c r="E103" s="14">
         <v>0.16889999999999999</v>
       </c>
       <c r="F103" s="8">
@@ -10916,7 +11011,7 @@
       <c r="D104" s="8">
         <v>2864541</v>
       </c>
-      <c r="E104" s="16">
+      <c r="E104" s="14">
         <v>0.1681</v>
       </c>
       <c r="F104" s="8">
@@ -10942,7 +11037,7 @@
       <c r="D105" s="8">
         <v>2924288</v>
       </c>
-      <c r="E105" s="16">
+      <c r="E105" s="14">
         <v>0.16889999999999999</v>
       </c>
       <c r="F105" s="8">
@@ -10968,7 +11063,7 @@
       <c r="D106" s="8">
         <v>2992102</v>
       </c>
-      <c r="E106" s="16">
+      <c r="E106" s="14">
         <v>0.17430000000000001</v>
       </c>
       <c r="F106" s="8">
@@ -10994,7 +11089,7 @@
       <c r="D107" s="8">
         <v>3067620</v>
       </c>
-      <c r="E107" s="16">
+      <c r="E107" s="14">
         <v>0.1605</v>
       </c>
       <c r="F107" s="8">
@@ -11020,7 +11115,7 @@
       <c r="D108" s="8">
         <v>3153623</v>
       </c>
-      <c r="E108" s="16">
+      <c r="E108" s="14">
         <v>0.15029999999999999</v>
       </c>
       <c r="F108" s="8">
@@ -11046,7 +11141,7 @@
       <c r="D109" s="8">
         <v>3207857</v>
       </c>
-      <c r="E109" s="16">
+      <c r="E109" s="14">
         <v>0.1467</v>
       </c>
       <c r="F109" s="8">
@@ -11072,7 +11167,7 @@
       <c r="D110" s="8">
         <v>3269897</v>
       </c>
-      <c r="E110" s="16">
+      <c r="E110" s="14">
         <v>0.15049999999999999</v>
       </c>
       <c r="F110" s="8">
@@ -11098,7 +11193,7 @@
       <c r="D111" s="8">
         <v>3331844</v>
       </c>
-      <c r="E111" s="16">
+      <c r="E111" s="14">
         <v>0.14180000000000001</v>
       </c>
       <c r="F111" s="8">
@@ -11124,7 +11219,7 @@
       <c r="D112" s="8">
         <v>3396677</v>
       </c>
-      <c r="E112" s="16">
+      <c r="E112" s="14">
         <v>0.13900000000000001</v>
       </c>
       <c r="F112" s="8">
@@ -11150,7 +11245,7 @@
       <c r="D113" s="8">
         <v>3465070</v>
       </c>
-      <c r="E113" s="16">
+      <c r="E113" s="14">
         <v>0.13730000000000001</v>
       </c>
       <c r="F113" s="8">
@@ -11176,7 +11271,7 @@
       <c r="D114" s="8">
         <v>3539452</v>
       </c>
-      <c r="E114" s="16">
+      <c r="E114" s="14">
         <v>0.13439999999999999</v>
       </c>
       <c r="F114" s="8">
@@ -11202,7 +11297,7 @@
       <c r="D115" s="8">
         <v>3604509</v>
       </c>
-      <c r="E115" s="16">
+      <c r="E115" s="14">
         <v>0.13758337884560001</v>
       </c>
       <c r="F115" s="8">
@@ -11228,7 +11323,7 @@
       <c r="D116" s="8">
         <v>3664679</v>
       </c>
-      <c r="E116" s="16">
+      <c r="E116" s="14">
         <v>0.13220000000000001</v>
       </c>
       <c r="F116" s="8">
@@ -11254,7 +11349,7 @@
       <c r="D117" s="8">
         <v>3714821</v>
       </c>
-      <c r="E117" s="16">
+      <c r="E117" s="14">
         <v>0.1283</v>
       </c>
       <c r="F117" s="8">
@@ -11280,7 +11375,7 @@
       <c r="D118" s="8">
         <v>3777263</v>
       </c>
-      <c r="E118" s="16">
+      <c r="E118" s="14">
         <v>0.1255</v>
       </c>
       <c r="F118" s="8">
@@ -11306,7 +11401,7 @@
       <c r="D119" s="8">
         <v>3849040</v>
       </c>
-      <c r="E119" s="16">
+      <c r="E119" s="14">
         <v>0.12089999999999999</v>
       </c>
       <c r="F119" s="8">
@@ -11332,7 +11427,7 @@
       <c r="D120" s="8">
         <v>3911270</v>
       </c>
-      <c r="E120" s="16">
+      <c r="E120" s="14">
         <v>0.1212</v>
       </c>
       <c r="F120" s="8">
@@ -11358,7 +11453,7 @@
       <c r="D121" s="8">
         <v>3990030</v>
       </c>
-      <c r="E121" s="16">
+      <c r="E121" s="14">
         <v>0.1205</v>
       </c>
       <c r="F121" s="8">
@@ -11375,60 +11470,112 @@
       <c r="A122" s="6">
         <v>44044</v>
       </c>
-      <c r="B122" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>269</v>
+      <c r="B122" s="8">
+        <v>3786548</v>
+      </c>
+      <c r="C122" s="8">
+        <v>242418</v>
       </c>
       <c r="D122" s="8">
         <v>4028966</v>
       </c>
-      <c r="E122" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="G122" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="H122" s="8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="B124" s="13"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="13"/>
-      <c r="H124" s="13"/>
-    </row>
-    <row r="125" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="14" t="s">
+      <c r="E122" s="14">
+        <v>0.13120000000000001</v>
+      </c>
+      <c r="F122" s="8">
+        <v>59510</v>
+      </c>
+      <c r="G122" s="8">
+        <v>1126</v>
+      </c>
+      <c r="H122" s="8">
+        <v>60637</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="6">
+        <v>44045</v>
+      </c>
+      <c r="B123" s="8">
+        <v>3834586</v>
+      </c>
+      <c r="C123" s="8">
+        <v>243777</v>
+      </c>
+      <c r="D123" s="8">
+        <v>4078363</v>
+      </c>
+      <c r="E123" s="14">
+        <v>0.13570238400410001</v>
+      </c>
+      <c r="F123" s="8">
+        <v>57958</v>
+      </c>
+      <c r="G123" s="8">
+        <v>1140</v>
+      </c>
+      <c r="H123" s="8">
+        <v>59098</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="6">
+        <v>44046</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D124" s="8">
+        <v>4143342</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="H124" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="B125" s="13"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="13"/>
-      <c r="H125" s="13"/>
+      <c r="B126" s="19"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="19"/>
+      <c r="H126" s="19"/>
+    </row>
+    <row r="127" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="B127" s="19"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="19"/>
+      <c r="G127" s="19"/>
+      <c r="H127" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A124:H124"/>
-    <mergeCell ref="A125:H125"/>
+    <mergeCell ref="A126:H126"/>
+    <mergeCell ref="A127:H127"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -11438,7 +11585,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="I22" sqref="I22"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -11449,48 +11596,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="B1" s="13"/>
+      <c r="A1" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B3" s="8">
-        <v>118140</v>
+        <v>118496</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B4" s="8">
-        <v>3910826</v>
+        <v>4024846</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B5" s="8">
-        <v>4028966</v>
+        <v>4143342</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="B7" s="13"/>
+      <c r="A7" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11508,7 +11655,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="I22" sqref="I22"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -11519,40 +11666,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="B1" s="13"/>
+      <c r="A1" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B3" s="8">
-        <v>242251</v>
+        <v>243777</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B4" s="8">
-        <v>11812</v>
+        <v>12054</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="B6" s="13"/>
+      <c r="A6" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="B6" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11570,7 +11717,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="I22" sqref="I22"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -11581,64 +11728,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="B1" s="13"/>
+      <c r="A1" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B3" s="4">
-        <v>8969</v>
+        <v>8819</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B4" s="4">
-        <v>54779</v>
+        <v>52200</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B5" s="4">
-        <v>11674</v>
+        <v>11916</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B6" s="4">
-        <v>1170</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B7" s="4">
-        <v>6457</v>
+        <v>6563</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="B9" s="13"/>
+      <c r="A9" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11652,11 +11799,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="I22" sqref="I22"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -11668,21 +11815,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -13005,17 +13152,39 @@
         <v>8969</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="B124" s="13"/>
-      <c r="C124" s="13"/>
+    <row r="123" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>121</v>
+      </c>
+      <c r="B123" s="6">
+        <v>44045</v>
+      </c>
+      <c r="C123" s="4">
+        <v>8610</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>122</v>
+      </c>
+      <c r="B124" s="6">
+        <v>44046</v>
+      </c>
+      <c r="C124" s="4">
+        <v>8819</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="B126" s="19"/>
+      <c r="C126" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A126:C126"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -13028,7 +13197,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="I22" sqref="I22"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -13036,169 +13205,169 @@
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B3" s="10">
         <v>139</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <f>B3/B$16</f>
-        <v>3.8138616034681448E-3</v>
+        <v>3.8005140263575217E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B4" s="10">
         <v>629</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
-        <v>1.7258409702024913E-2</v>
+        <v>1.7198009514955981E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B5" s="10">
-        <v>1595</v>
-      </c>
-      <c r="C5" s="18">
+        <v>1597</v>
+      </c>
+      <c r="C5" s="17">
         <f t="shared" si="0"/>
-        <v>4.3763375953465404E-2</v>
+        <v>4.3664898561819869E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B6" s="10">
-        <v>6816</v>
-      </c>
-      <c r="C6" s="18">
+        <v>6832</v>
+      </c>
+      <c r="C6" s="17">
         <f t="shared" si="0"/>
-        <v>0.1870164078362509</v>
+        <v>0.18679936566960137</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B7" s="10">
-        <v>7152</v>
-      </c>
-      <c r="C7" s="18">
+        <v>7184</v>
+      </c>
+      <c r="C7" s="17">
         <f t="shared" si="0"/>
-        <v>0.19623552653240411</v>
+        <v>0.19642368895937004</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B8" s="10">
-        <v>6652</v>
-      </c>
-      <c r="C8" s="18">
+        <v>6695</v>
+      </c>
+      <c r="C8" s="17">
         <f t="shared" si="0"/>
-        <v>0.18251659990122374</v>
+        <v>0.18305353529829935</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B9" s="10">
-        <v>6193</v>
-      </c>
-      <c r="C9" s="18">
+        <v>6212</v>
+      </c>
+      <c r="C9" s="17">
         <f t="shared" si="0"/>
-        <v>0.16992262525380014</v>
+        <v>0.16984743260239515</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B10" s="10">
-        <v>2426</v>
-      </c>
-      <c r="C10" s="18">
+        <v>2433</v>
+      </c>
+      <c r="C10" s="17">
         <f t="shared" si="0"/>
-        <v>6.656423201448719E-2</v>
+        <v>6.6522666375020509E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B11" s="10">
-        <v>1770</v>
-      </c>
-      <c r="C11" s="18">
+        <v>1771</v>
+      </c>
+      <c r="C11" s="17">
         <f t="shared" si="0"/>
-        <v>4.8565000274378531E-2</v>
+        <v>4.8422376551648709E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B12" s="10">
-        <v>1075</v>
-      </c>
-      <c r="C12" s="18">
+        <v>1074</v>
+      </c>
+      <c r="C12" s="17">
         <f t="shared" si="0"/>
-        <v>2.9495692257037808E-2</v>
+        <v>2.9365122764805601E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B13" s="10">
-        <v>724</v>
-      </c>
-      <c r="C13" s="18">
+        <v>728</v>
+      </c>
+      <c r="C13" s="17">
         <f t="shared" si="0"/>
-        <v>1.9865005761949186E-2</v>
+        <v>1.9904850440203424E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B14" s="10">
-        <v>1247</v>
-      </c>
-      <c r="C14" s="18">
+        <v>1249</v>
+      </c>
+      <c r="C14" s="17">
         <f t="shared" si="0"/>
-        <v>3.421500301816386E-2</v>
+        <v>3.4149942582162189E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -13206,11 +13375,11 @@
         <v>258</v>
       </c>
       <c r="B15" s="10">
-        <v>28</v>
-      </c>
-      <c r="C15" s="18">
+        <v>31</v>
+      </c>
+      <c r="C15" s="17">
         <f t="shared" si="0"/>
-        <v>7.6825989134610107E-4</v>
+        <v>8.4759665336031056E-4</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -13218,33 +13387,33 @@
         <v>259</v>
       </c>
       <c r="B16" s="10">
-        <v>36446</v>
-      </c>
-      <c r="C16" s="18">
+        <v>36574</v>
+      </c>
+      <c r="C16" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="A18" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="A19" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
